--- a/exe/TSV/Excel/Main_UIList.xlsx
+++ b/exe/TSV/Excel/Main_UIList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockinglConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5BEEE37-28F1-4E22-90E5-B2978A0F68CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00AA3EEC-BD02-4099-8129-09DB75AC002A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2010" yWindow="3360" windowWidth="24345" windowHeight="15000" xr2:uid="{31F46B59-F167-4BD2-9521-00AA08088B07}"/>
+    <workbookView xWindow="5040" yWindow="5100" windowWidth="24345" windowHeight="15000" xr2:uid="{31F46B59-F167-4BD2-9521-00AA08088B07}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="48">
   <si>
     <t>Type</t>
     <phoneticPr fontId="1"/>
@@ -531,6 +531,10 @@
     <rPh sb="7" eb="8">
       <t>エキ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ImagePattern</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -929,12 +933,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDD8F3DC-5A00-45A7-84F3-974DC90E2A3E}">
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -947,12 +951,12 @@
     <col min="9" max="9" width="6.375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13" style="1" customWidth="1"/>
-    <col min="12" max="16" width="18.75" style="1" customWidth="1"/>
-    <col min="17" max="17" width="19.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="1"/>
+    <col min="12" max="17" width="18.75" style="1" customWidth="1"/>
+    <col min="18" max="18" width="19.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1002,10 +1006,13 @@
         <v>8</v>
       </c>
       <c r="Q1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="R1" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -1046,9 +1053,10 @@
       <c r="P2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="Q2" s="4"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="4"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -1089,9 +1097,10 @@
       <c r="P3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="Q3" s="4"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="4"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -1132,9 +1141,10 @@
       <c r="P4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="Q4" s="4"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="4"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -1175,9 +1185,10 @@
       <c r="P5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="Q5" s="4"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="4"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -1218,9 +1229,10 @@
       <c r="P6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="Q6" s="4"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="4"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -1261,9 +1273,10 @@
       <c r="P7" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="Q7" s="4"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="4"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -1304,9 +1317,10 @@
       <c r="P8" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="Q8" s="4"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="4"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
@@ -1347,9 +1361,10 @@
       <c r="P9" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="Q9" s="4"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="4"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
@@ -1390,7 +1405,8 @@
       <c r="P10" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="Q10" s="4"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/exe/TSV/Excel/Main_UIList.xlsx
+++ b/exe/TSV/Excel/Main_UIList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockinglConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00AA3EEC-BD02-4099-8129-09DB75AC002A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D94E210-46FC-4A0F-9159-5A9E2F620ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5040" yWindow="5100" windowWidth="24345" windowHeight="15000" xr2:uid="{31F46B59-F167-4BD2-9521-00AA08088B07}"/>
+    <workbookView xWindow="5025" yWindow="4950" windowWidth="24345" windowHeight="15000" xr2:uid="{31F46B59-F167-4BD2-9521-00AA08088B07}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="49">
   <si>
     <t>Type</t>
     <phoneticPr fontId="1"/>
@@ -535,6 +535,10 @@
   </si>
   <si>
     <t>ImagePattern</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Label</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -933,12 +937,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDD8F3DC-5A00-45A7-84F3-974DC90E2A3E}">
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -951,12 +955,12 @@
     <col min="9" max="9" width="6.375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13" style="1" customWidth="1"/>
-    <col min="12" max="17" width="18.75" style="1" customWidth="1"/>
-    <col min="18" max="18" width="19.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="1"/>
+    <col min="12" max="18" width="18.75" style="1" customWidth="1"/>
+    <col min="19" max="19" width="19.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1006,13 +1010,16 @@
         <v>8</v>
       </c>
       <c r="Q1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="R1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -1054,9 +1061,10 @@
         <v>30</v>
       </c>
       <c r="Q2" s="3"/>
-      <c r="R2" s="4"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="4"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -1098,9 +1106,10 @@
         <v>32</v>
       </c>
       <c r="Q3" s="3"/>
-      <c r="R3" s="4"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="4"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -1142,9 +1151,10 @@
         <v>34</v>
       </c>
       <c r="Q4" s="3"/>
-      <c r="R4" s="4"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="4"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -1186,9 +1196,10 @@
         <v>36</v>
       </c>
       <c r="Q5" s="3"/>
-      <c r="R5" s="4"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="4"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -1230,9 +1241,10 @@
         <v>38</v>
       </c>
       <c r="Q6" s="3"/>
-      <c r="R6" s="4"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="4"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -1274,9 +1286,10 @@
         <v>40</v>
       </c>
       <c r="Q7" s="3"/>
-      <c r="R7" s="4"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="4"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -1318,9 +1331,10 @@
         <v>42</v>
       </c>
       <c r="Q8" s="3"/>
-      <c r="R8" s="4"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="4"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
@@ -1362,9 +1376,10 @@
         <v>44</v>
       </c>
       <c r="Q9" s="3"/>
-      <c r="R9" s="4"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="4"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
@@ -1406,7 +1421,8 @@
         <v>46</v>
       </c>
       <c r="Q10" s="3"/>
-      <c r="R10" s="4"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/exe/TSV/Excel/Main_UIList.xlsx
+++ b/exe/TSV/Excel/Main_UIList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockinglConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D94E210-46FC-4A0F-9159-5A9E2F620ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E60D78F9-AB30-4AFF-A58C-2F08FCF0DFE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5025" yWindow="4950" windowWidth="24345" windowHeight="15000" xr2:uid="{31F46B59-F167-4BD2-9521-00AA08088B07}"/>
+    <workbookView xWindow="4590" yWindow="4590" windowWidth="24345" windowHeight="15000" xr2:uid="{31F46B59-F167-4BD2-9521-00AA08088B07}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="51">
   <si>
     <t>Type</t>
     <phoneticPr fontId="1"/>
@@ -538,7 +538,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Label</t>
+    <t>DefaultImage</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Remark</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BaseImagePath</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -604,7 +612,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -621,6 +629,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -937,7 +948,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDD8F3DC-5A00-45A7-84F3-974DC90E2A3E}">
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -955,12 +966,12 @@
     <col min="9" max="9" width="6.375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13" style="1" customWidth="1"/>
-    <col min="12" max="18" width="18.75" style="1" customWidth="1"/>
-    <col min="19" max="19" width="19.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="1"/>
+    <col min="12" max="19" width="18.75" style="1" customWidth="1"/>
+    <col min="20" max="20" width="19.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1010,16 +1021,22 @@
         <v>8</v>
       </c>
       <c r="Q1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="R1" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="R1" s="5" t="s">
-        <v>47</v>
-      </c>
       <c r="S1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="T1" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="U1" s="6" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -1062,9 +1079,10 @@
       </c>
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
-      <c r="S2" s="4"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="4"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -1107,9 +1125,10 @@
       </c>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
-      <c r="S3" s="4"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="4"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -1152,9 +1171,10 @@
       </c>
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
-      <c r="S4" s="4"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="4"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -1197,9 +1217,10 @@
       </c>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
-      <c r="S5" s="4"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="4"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -1242,9 +1263,10 @@
       </c>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
-      <c r="S6" s="4"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="4"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -1287,9 +1309,10 @@
       </c>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
-      <c r="S7" s="4"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="4"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -1332,9 +1355,10 @@
       </c>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
-      <c r="S8" s="4"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="4"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
@@ -1377,9 +1401,10 @@
       </c>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
-      <c r="S9" s="4"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="4"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
@@ -1422,7 +1447,8 @@
       </c>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
-      <c r="S10" s="4"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/exe/TSV/Excel/Main_UIList.xlsx
+++ b/exe/TSV/Excel/Main_UIList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockinglConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E60D78F9-AB30-4AFF-A58C-2F08FCF0DFE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADFC346C-00C7-4839-9524-3B7A6C3AA445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4590" yWindow="4590" windowWidth="24345" windowHeight="15000" xr2:uid="{31F46B59-F167-4BD2-9521-00AA08088B07}"/>
+    <workbookView xWindow="6375" yWindow="4005" windowWidth="24300" windowHeight="15000" xr2:uid="{31F46B59-F167-4BD2-9521-00AA08088B07}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="53">
   <si>
     <t>Type</t>
     <phoneticPr fontId="1"/>
@@ -547,6 +547,14 @@
   </si>
   <si>
     <t>BaseImagePath</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PointName</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PointValue</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -948,7 +956,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDD8F3DC-5A00-45A7-84F3-974DC90E2A3E}">
-  <dimension ref="A1:U10"/>
+  <dimension ref="A1:W10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -958,20 +966,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="4" width="18.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6" style="1" customWidth="1"/>
-    <col min="7" max="7" width="6.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13" style="1" customWidth="1"/>
-    <col min="12" max="19" width="18.75" style="1" customWidth="1"/>
-    <col min="20" max="20" width="19.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9" style="1"/>
+    <col min="1" max="6" width="18.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13" style="1" customWidth="1"/>
+    <col min="14" max="21" width="18.75" style="1" customWidth="1"/>
+    <col min="22" max="22" width="19.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -985,58 +993,64 @@
         <v>19</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="W1" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -1047,42 +1061,44 @@
         <v>20</v>
       </c>
       <c r="D2" s="3"/>
-      <c r="E2" s="3">
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3">
         <v>50</v>
       </c>
-      <c r="F2" s="3">
+      <c r="H2" s="3">
         <v>100</v>
       </c>
-      <c r="G2" s="3">
+      <c r="I2" s="3">
         <v>200</v>
       </c>
-      <c r="H2" s="3">
+      <c r="J2" s="3">
         <v>80</v>
       </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
       <c r="K2" s="3"/>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="3">
+      <c r="O2" s="3">
         <v>24</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
       <c r="S2" s="3"/>
-      <c r="T2" s="4"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="4"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -1093,42 +1109,44 @@
         <v>21</v>
       </c>
       <c r="D3" s="3"/>
-      <c r="E3" s="3">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3">
         <v>286</v>
       </c>
-      <c r="F3" s="3">
+      <c r="H3" s="3">
         <v>100</v>
       </c>
-      <c r="G3" s="3">
+      <c r="I3" s="3">
         <v>200</v>
       </c>
-      <c r="H3" s="3">
+      <c r="J3" s="3">
         <v>80</v>
       </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
       <c r="K3" s="3"/>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="3">
+      <c r="O3" s="3">
         <v>24</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="R3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
       <c r="S3" s="3"/>
-      <c r="T3" s="4"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="4"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -1139,42 +1157,44 @@
         <v>22</v>
       </c>
       <c r="D4" s="3"/>
-      <c r="E4" s="3">
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3">
         <v>522</v>
       </c>
-      <c r="F4" s="3">
+      <c r="H4" s="3">
         <v>100</v>
       </c>
-      <c r="G4" s="3">
+      <c r="I4" s="3">
         <v>200</v>
       </c>
-      <c r="H4" s="3">
+      <c r="J4" s="3">
         <v>80</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
       <c r="K4" s="3"/>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="M4" s="3">
+      <c r="O4" s="3">
         <v>24</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="R4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
       <c r="S4" s="3"/>
-      <c r="T4" s="4"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="4"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -1185,42 +1205,44 @@
         <v>23</v>
       </c>
       <c r="D5" s="3"/>
-      <c r="E5" s="3">
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3">
         <v>758</v>
       </c>
-      <c r="F5" s="3">
+      <c r="H5" s="3">
         <v>100</v>
       </c>
-      <c r="G5" s="3">
+      <c r="I5" s="3">
         <v>200</v>
       </c>
-      <c r="H5" s="3">
+      <c r="J5" s="3">
         <v>80</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
       <c r="K5" s="3"/>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="M5" s="3">
+      <c r="O5" s="3">
         <v>24</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="P5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="Q5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="R5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
       <c r="S5" s="3"/>
-      <c r="T5" s="4"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="4"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -1231,42 +1253,44 @@
         <v>24</v>
       </c>
       <c r="D6" s="3"/>
-      <c r="E6" s="3">
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3">
         <v>50</v>
       </c>
-      <c r="F6" s="3">
+      <c r="H6" s="3">
         <v>275</v>
       </c>
-      <c r="G6" s="3">
+      <c r="I6" s="3">
         <v>200</v>
       </c>
-      <c r="H6" s="3">
+      <c r="J6" s="3">
         <v>80</v>
       </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
       <c r="K6" s="3"/>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="M6" s="3">
+      <c r="O6" s="3">
         <v>24</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="P6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="Q6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="R6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
       <c r="S6" s="3"/>
-      <c r="T6" s="4"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="4"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -1277,42 +1301,44 @@
         <v>25</v>
       </c>
       <c r="D7" s="3"/>
-      <c r="E7" s="3">
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3">
         <v>286</v>
       </c>
-      <c r="F7" s="3">
+      <c r="H7" s="3">
         <v>275</v>
       </c>
-      <c r="G7" s="3">
+      <c r="I7" s="3">
         <v>200</v>
       </c>
-      <c r="H7" s="3">
+      <c r="J7" s="3">
         <v>80</v>
       </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
       <c r="K7" s="3"/>
-      <c r="L7" s="3" t="s">
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="M7" s="3">
+      <c r="O7" s="3">
         <v>24</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="P7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="Q7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="R7" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
       <c r="S7" s="3"/>
-      <c r="T7" s="4"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="4"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -1323,42 +1349,44 @@
         <v>26</v>
       </c>
       <c r="D8" s="3"/>
-      <c r="E8" s="3">
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3">
         <v>522</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>275</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>80</v>
       </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
       <c r="K8" s="3"/>
-      <c r="L8" s="3" t="s">
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>24</v>
       </c>
-      <c r="N8" s="3" t="s">
+      <c r="P8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O8" s="3" t="s">
+      <c r="Q8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="P8" s="3" t="s">
+      <c r="R8" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
       <c r="S8" s="3"/>
-      <c r="T8" s="4"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="4"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
@@ -1369,42 +1397,44 @@
         <v>27</v>
       </c>
       <c r="D9" s="3"/>
-      <c r="E9" s="3">
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3">
         <v>758</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>275</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>80</v>
       </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
       <c r="K9" s="3"/>
-      <c r="L9" s="3" t="s">
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>24</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="P9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O9" s="3" t="s">
+      <c r="Q9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="P9" s="3" t="s">
+      <c r="R9" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
       <c r="S9" s="3"/>
-      <c r="T9" s="4"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="4"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
@@ -1415,40 +1445,42 @@
         <v>28</v>
       </c>
       <c r="D10" s="3"/>
-      <c r="E10" s="3">
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3">
         <v>50</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>450</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>80</v>
       </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
       <c r="K10" s="3"/>
-      <c r="L10" s="3" t="s">
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>24</v>
       </c>
-      <c r="N10" s="3" t="s">
+      <c r="P10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O10" s="3" t="s">
+      <c r="Q10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="P10" s="3" t="s">
+      <c r="R10" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
       <c r="S10" s="3"/>
-      <c r="T10" s="4"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/exe/TSV/Excel/Main_UIList.xlsx
+++ b/exe/TSV/Excel/Main_UIList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockinglConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADFC346C-00C7-4839-9524-3B7A6C3AA445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B32E49F6-905A-4E1D-AAAB-A205935F27FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6375" yWindow="4005" windowWidth="24300" windowHeight="15000" xr2:uid="{31F46B59-F167-4BD2-9521-00AA08088B07}"/>
+    <workbookView xWindow="12255" yWindow="4800" windowWidth="24300" windowHeight="15000" xr2:uid="{31F46B59-F167-4BD2-9521-00AA08088B07}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="61">
   <si>
     <t>Type</t>
     <phoneticPr fontId="1"/>
@@ -555,6 +555,56 @@
   </si>
   <si>
     <t>PointValue</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Button_W13</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Button_W14</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Button_W15</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Button_W18</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>藤江駅</t>
+    <rPh sb="0" eb="2">
+      <t>フジエ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>エキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水越駅</t>
+    <rPh sb="0" eb="2">
+      <t>ミズコシ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>エキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高見沢駅</t>
+    <rPh sb="3" eb="4">
+      <t>エキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>西赤山駅</t>
+    <rPh sb="3" eb="4">
+      <t>エキ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -620,7 +670,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -640,6 +690,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -956,12 +1009,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDD8F3DC-5A00-45A7-84F3-974DC90E2A3E}">
-  <dimension ref="A1:W10"/>
+  <dimension ref="A1:W14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1067,7 +1120,7 @@
         <v>50</v>
       </c>
       <c r="H2" s="3">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I2" s="3">
         <v>200</v>
@@ -1115,7 +1168,7 @@
         <v>286</v>
       </c>
       <c r="H3" s="3">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I3" s="3">
         <v>200</v>
@@ -1163,7 +1216,7 @@
         <v>522</v>
       </c>
       <c r="H4" s="3">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I4" s="3">
         <v>200</v>
@@ -1211,7 +1264,7 @@
         <v>758</v>
       </c>
       <c r="H5" s="3">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I5" s="3">
         <v>200</v>
@@ -1259,7 +1312,7 @@
         <v>50</v>
       </c>
       <c r="H6" s="3">
-        <v>275</v>
+        <v>210</v>
       </c>
       <c r="I6" s="3">
         <v>200</v>
@@ -1307,7 +1360,7 @@
         <v>286</v>
       </c>
       <c r="H7" s="3">
-        <v>275</v>
+        <v>210</v>
       </c>
       <c r="I7" s="3">
         <v>200</v>
@@ -1355,7 +1408,7 @@
         <v>522</v>
       </c>
       <c r="H8" s="3">
-        <v>275</v>
+        <v>210</v>
       </c>
       <c r="I8" s="3">
         <v>200</v>
@@ -1391,10 +1444,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -1403,7 +1456,7 @@
         <v>758</v>
       </c>
       <c r="H9" s="3">
-        <v>275</v>
+        <v>210</v>
       </c>
       <c r="I9" s="3">
         <v>200</v>
@@ -1414,8 +1467,8 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
-      <c r="N9" s="3" t="s">
-        <v>43</v>
+      <c r="N9" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="O9" s="3">
         <v>24</v>
@@ -1426,9 +1479,7 @@
       <c r="Q9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="R9" s="3"/>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
@@ -1439,10 +1490,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -1451,7 +1502,7 @@
         <v>50</v>
       </c>
       <c r="H10" s="3">
-        <v>450</v>
+        <v>340</v>
       </c>
       <c r="I10" s="3">
         <v>200</v>
@@ -1462,8 +1513,8 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
-      <c r="N10" s="3" t="s">
-        <v>45</v>
+      <c r="N10" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="O10" s="3">
         <v>24</v>
@@ -1474,13 +1525,199 @@
       <c r="Q10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="R10" s="3"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
       <c r="V10" s="4"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3">
+        <v>286</v>
+      </c>
+      <c r="H11" s="3">
+        <v>340</v>
+      </c>
+      <c r="I11" s="3">
+        <v>200</v>
+      </c>
+      <c r="J11" s="3">
+        <v>80</v>
+      </c>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="O11" s="3">
+        <v>24</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="4"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3">
+        <v>522</v>
+      </c>
+      <c r="H12" s="3">
+        <v>340</v>
+      </c>
+      <c r="I12" s="3">
+        <v>200</v>
+      </c>
+      <c r="J12" s="3">
+        <v>80</v>
+      </c>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O12" s="3">
+        <v>24</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="4"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3">
+        <v>758</v>
+      </c>
+      <c r="H13" s="3">
+        <v>340</v>
+      </c>
+      <c r="I13" s="3">
+        <v>200</v>
+      </c>
+      <c r="J13" s="3">
+        <v>80</v>
+      </c>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="O13" s="3">
+        <v>24</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="4"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3">
+        <v>50</v>
+      </c>
+      <c r="H14" s="3">
+        <v>470</v>
+      </c>
+      <c r="I14" s="3">
+        <v>200</v>
+      </c>
+      <c r="J14" s="3">
+        <v>80</v>
+      </c>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O14" s="3">
+        <v>24</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/exe/TSV/Excel/Main_UIList.xlsx
+++ b/exe/TSV/Excel/Main_UIList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockinglConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B32E49F6-905A-4E1D-AAAB-A205935F27FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B25D973-6BCB-4231-8EBF-7EBB66B0462B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12255" yWindow="4800" windowWidth="24300" windowHeight="15000" xr2:uid="{31F46B59-F167-4BD2-9521-00AA08088B07}"/>
+    <workbookView xWindow="5205" yWindow="4860" windowWidth="24300" windowHeight="15000" xr2:uid="{31F46B59-F167-4BD2-9521-00AA08088B07}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="65">
   <si>
     <t>Type</t>
     <phoneticPr fontId="1"/>
@@ -605,6 +605,70 @@
     <rPh sb="3" eb="4">
       <t>エキ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>W13_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>藤江駅</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>W14_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>水越駅</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>W15_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>高見沢駅</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>W18_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>西赤山駅</t>
+    </r>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -612,7 +676,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -639,6 +703,13 @@
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -1014,7 +1085,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1479,7 +1550,9 @@
       <c r="Q9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="R9" s="3"/>
+      <c r="R9" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
@@ -1525,7 +1598,9 @@
       <c r="Q10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="R10" s="3"/>
+      <c r="R10" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
@@ -1571,7 +1646,9 @@
       <c r="Q11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="R11" s="3"/>
+      <c r="R11" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
@@ -1665,7 +1742,9 @@
       <c r="Q13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="R13" s="3"/>
+      <c r="R13" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>

--- a/exe/TSV/Excel/Main_UIList.xlsx
+++ b/exe/TSV/Excel/Main_UIList.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockinglConsole\exe\TSV\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B25D973-6BCB-4231-8EBF-7EBB66B0462B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B3E79C-7D37-42DA-A7F0-7177C4D680F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5205" yWindow="4860" windowWidth="24300" windowHeight="15000" xr2:uid="{31F46B59-F167-4BD2-9521-00AA08088B07}"/>
+    <workbookView xWindow="5685" yWindow="5550" windowWidth="24165" windowHeight="15000" xr2:uid="{31F46B59-F167-4BD2-9521-00AA08088B07}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="65">
   <si>
     <t>Type</t>
     <phoneticPr fontId="1"/>
@@ -102,42 +102,6 @@
   </si>
   <si>
     <t>ParentName</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Button_W01</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Button_W02</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Button_W06</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Button_W07</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Button_W10</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Button_W11</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Button_W12</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Button_W16</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Button_W19</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -164,31 +128,6 @@
   </si>
   <si>
     <r>
-      <t>W01_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>館浜駅</t>
-    </r>
-    <rPh sb="4" eb="5">
-      <t>タテ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ハマ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>エキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
@@ -202,28 +141,6 @@
       <t>コマノ</t>
     </rPh>
     <rPh sb="2" eb="3">
-      <t>エキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>W02_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>駒野駅</t>
-    </r>
-    <rPh sb="4" eb="6">
-      <t>コマノ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
       <t>エキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -249,28 +166,6 @@
   </si>
   <si>
     <r>
-      <t>W06_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>津崎駅</t>
-    </r>
-    <rPh sb="4" eb="6">
-      <t>ツザキ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>エキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
@@ -284,28 +179,6 @@
       <t>ハマゾノ</t>
     </rPh>
     <rPh sb="2" eb="3">
-      <t>エキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>W07_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>浜園駅</t>
-    </r>
-    <rPh sb="4" eb="6">
-      <t>ハマゾノ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
       <t>エキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -334,31 +207,6 @@
   </si>
   <si>
     <r>
-      <t>W10_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>新野崎駅</t>
-    </r>
-    <rPh sb="4" eb="5">
-      <t>シン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ノザキ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>エキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
@@ -375,31 +223,6 @@
       <t>ハラ</t>
     </rPh>
     <rPh sb="3" eb="6">
-      <t>ケンシャク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>W11_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>江ノ原検車区</t>
-    </r>
-    <rPh sb="4" eb="5">
-      <t>エ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ハラ</t>
-    </rPh>
-    <rPh sb="7" eb="10">
       <t>ケンシャク</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -425,28 +248,6 @@
   </si>
   <si>
     <r>
-      <t>W12_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>大道寺駅</t>
-    </r>
-    <rPh sb="4" eb="7">
-      <t>ダイドウジ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>エキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
@@ -460,28 +261,6 @@
       <t>ヒノモリ</t>
     </rPh>
     <rPh sb="3" eb="4">
-      <t>エキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>W16_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>日野森駅</t>
-    </r>
-    <rPh sb="4" eb="7">
-      <t>ヒノモリ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
       <t>エキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -509,31 +288,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t>W19_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>赤山町駅</t>
-    </r>
-    <rPh sb="4" eb="6">
-      <t>アカヤマ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>マチ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>エキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ImagePattern</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -555,22 +309,6 @@
   </si>
   <si>
     <t>PointValue</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Button_W13</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Button_W14</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Button_W15</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Button_W18</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -608,67 +346,107 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t>W13_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>藤江駅</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>W14_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>水越駅</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>W15_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>高見沢駅</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>W18_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>西赤山駅</t>
-    </r>
+    <t>Button_TH76</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TH76_Tatehama</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Button_TH75</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TH75_Komano</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Button_TH71</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TH71_Tsuzaki</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TH70_Hamazono</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Button_TH70</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Button_TH67</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TH67_Shin-Nozaki</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Button_TH66</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TH66_Enohara-Inspection</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Button_TH65</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TH65_Daidoji</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Button_TH64</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TH64_Fujie</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Button_TH63</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TH63_Mizukoshi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Button_TH62</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TH62_Takamizawa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Button_TH61</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TH61_Hinomori</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Button_TH59</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TH59_Nishi-Akayama</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Button_TH58</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TH58_Akayamacho</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -676,7 +454,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -703,13 +481,6 @@
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -1098,7 +869,9 @@
     <col min="11" max="11" width="6.375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13" style="1" customWidth="1"/>
-    <col min="14" max="21" width="18.75" style="1" customWidth="1"/>
+    <col min="14" max="17" width="18.75" style="1" customWidth="1"/>
+    <col min="18" max="18" width="21.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="18.75" style="1" customWidth="1"/>
     <col min="22" max="22" width="19.75" style="2" bestFit="1" customWidth="1"/>
     <col min="23" max="16384" width="9" style="1"/>
   </cols>
@@ -1117,10 +890,10 @@
         <v>19</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>11</v>
@@ -1159,19 +932,19 @@
         <v>8</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="V1" s="5" t="s">
         <v>6</v>
       </c>
       <c r="W1" s="6" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.4">
@@ -1179,11 +952,9 @@
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>20</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -1203,7 +974,7 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="O2" s="3">
         <v>24</v>
@@ -1215,7 +986,7 @@
         <v>9</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
@@ -1227,11 +998,9 @@
         <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>21</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -1251,7 +1020,7 @@
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="O3" s="3">
         <v>24</v>
@@ -1263,7 +1032,7 @@
         <v>9</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
@@ -1275,11 +1044,9 @@
         <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>22</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -1299,7 +1066,7 @@
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="O4" s="3">
         <v>24</v>
@@ -1311,7 +1078,7 @@
         <v>9</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="S4" s="3"/>
       <c r="T4" s="3"/>
@@ -1323,11 +1090,9 @@
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>23</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -1347,7 +1112,7 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="O5" s="3">
         <v>24</v>
@@ -1359,7 +1124,7 @@
         <v>9</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
@@ -1371,11 +1136,9 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -1395,7 +1158,7 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="O6" s="3">
         <v>24</v>
@@ -1407,7 +1170,7 @@
         <v>9</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
@@ -1419,11 +1182,9 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -1443,7 +1204,7 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="O7" s="3">
         <v>24</v>
@@ -1455,7 +1216,7 @@
         <v>9</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
@@ -1467,11 +1228,9 @@
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>26</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -1491,7 +1250,7 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="O8" s="3">
         <v>24</v>
@@ -1503,7 +1262,7 @@
         <v>9</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
@@ -1517,9 +1276,7 @@
       <c r="B9" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -1539,7 +1296,7 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="7" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="O9" s="3">
         <v>24</v>
@@ -1551,7 +1308,7 @@
         <v>9</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
@@ -1563,11 +1320,9 @@
         <v>5</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>54</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -1587,7 +1342,7 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="7" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="O10" s="3">
         <v>24</v>
@@ -1599,7 +1354,7 @@
         <v>9</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
@@ -1611,11 +1366,9 @@
         <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>55</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -1635,7 +1388,7 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="7" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="O11" s="3">
         <v>24</v>
@@ -1647,7 +1400,7 @@
         <v>9</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
@@ -1659,11 +1412,9 @@
         <v>5</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>27</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -1683,7 +1434,7 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="O12" s="3">
         <v>24</v>
@@ -1695,7 +1446,7 @@
         <v>9</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
@@ -1707,11 +1458,9 @@
         <v>5</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>56</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -1731,7 +1480,7 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="7" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="O13" s="3">
         <v>24</v>
@@ -1743,7 +1492,7 @@
         <v>9</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
@@ -1755,11 +1504,9 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>28</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -1779,7 +1526,7 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="O14" s="3">
         <v>24</v>
@@ -1791,7 +1538,7 @@
         <v>9</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>

--- a/exe/TSV/Excel/Main_UIList.xlsx
+++ b/exe/TSV/Excel/Main_UIList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B3E79C-7D37-42DA-A7F0-7177C4D680F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3ABD97B-BF10-4F11-BAFA-9742CC8AC54E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5685" yWindow="5550" windowWidth="24165" windowHeight="15000" xr2:uid="{31F46B59-F167-4BD2-9521-00AA08088B07}"/>
+    <workbookView xWindow="8205" yWindow="5235" windowWidth="24165" windowHeight="15615" xr2:uid="{31F46B59-F167-4BD2-9521-00AA08088B07}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="66">
   <si>
     <t>Type</t>
     <phoneticPr fontId="1"/>
@@ -447,6 +447,10 @@
   </si>
   <si>
     <t>TH58_Akayamacho</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KeyName</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -851,32 +855,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDD8F3DC-5A00-45A7-84F3-974DC90E2A3E}">
-  <dimension ref="A1:W14"/>
+  <dimension ref="A1:X14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="6" width="18.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6" style="1" customWidth="1"/>
-    <col min="9" max="9" width="6.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13" style="1" customWidth="1"/>
-    <col min="14" max="17" width="18.75" style="1" customWidth="1"/>
-    <col min="18" max="18" width="21.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="18.75" style="1" customWidth="1"/>
-    <col min="22" max="22" width="19.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9" style="1"/>
+    <col min="1" max="7" width="18.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6" style="1" customWidth="1"/>
+    <col min="10" max="10" width="6.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13" style="1" customWidth="1"/>
+    <col min="15" max="18" width="18.75" style="1" customWidth="1"/>
+    <col min="19" max="19" width="21.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="18.75" style="1" customWidth="1"/>
+    <col min="23" max="23" width="19.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -896,58 +900,61 @@
         <v>34</v>
       </c>
       <c r="G1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="X1" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -958,42 +965,43 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="3">
+      <c r="G2" s="3"/>
+      <c r="H2" s="3">
         <v>50</v>
       </c>
-      <c r="H2" s="3">
-        <v>80</v>
-      </c>
       <c r="I2" s="3">
+        <v>80</v>
+      </c>
+      <c r="J2" s="3">
         <v>200</v>
       </c>
-      <c r="J2" s="3">
-        <v>80</v>
-      </c>
-      <c r="K2" s="3"/>
+      <c r="K2" s="3">
+        <v>80</v>
+      </c>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="3"/>
+      <c r="O2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="O2" s="3">
+      <c r="P2" s="3">
         <v>24</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="S2" s="3"/>
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
-      <c r="V2" s="4"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="4"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -1004,42 +1012,43 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="3">
+      <c r="G3" s="3"/>
+      <c r="H3" s="3">
         <v>286</v>
       </c>
-      <c r="H3" s="3">
-        <v>80</v>
-      </c>
       <c r="I3" s="3">
+        <v>80</v>
+      </c>
+      <c r="J3" s="3">
         <v>200</v>
       </c>
-      <c r="J3" s="3">
-        <v>80</v>
-      </c>
-      <c r="K3" s="3"/>
+      <c r="K3" s="3">
+        <v>80</v>
+      </c>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="3"/>
+      <c r="O3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O3" s="3">
+      <c r="P3" s="3">
         <v>24</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="R3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="S3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="S3" s="3"/>
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
-      <c r="V3" s="4"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="4"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -1050,42 +1059,43 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="3">
+      <c r="G4" s="3"/>
+      <c r="H4" s="3">
         <v>522</v>
       </c>
-      <c r="H4" s="3">
-        <v>80</v>
-      </c>
       <c r="I4" s="3">
+        <v>80</v>
+      </c>
+      <c r="J4" s="3">
         <v>200</v>
       </c>
-      <c r="J4" s="3">
-        <v>80</v>
-      </c>
-      <c r="K4" s="3"/>
+      <c r="K4" s="3">
+        <v>80</v>
+      </c>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
-      <c r="N4" s="3" t="s">
+      <c r="N4" s="3"/>
+      <c r="O4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="O4" s="3">
+      <c r="P4" s="3">
         <v>24</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="R4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="S4" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="S4" s="3"/>
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
-      <c r="V4" s="4"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="4"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -1096,42 +1106,43 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="3">
+      <c r="G5" s="3"/>
+      <c r="H5" s="3">
         <v>758</v>
       </c>
-      <c r="H5" s="3">
-        <v>80</v>
-      </c>
       <c r="I5" s="3">
+        <v>80</v>
+      </c>
+      <c r="J5" s="3">
         <v>200</v>
       </c>
-      <c r="J5" s="3">
-        <v>80</v>
-      </c>
-      <c r="K5" s="3"/>
+      <c r="K5" s="3">
+        <v>80</v>
+      </c>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
-      <c r="N5" s="3" t="s">
+      <c r="N5" s="3"/>
+      <c r="O5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="O5" s="3">
+      <c r="P5" s="3">
         <v>24</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="Q5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="R5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="R5" s="3" t="s">
+      <c r="S5" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="S5" s="3"/>
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
-      <c r="V5" s="4"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="4"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -1142,42 +1153,43 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="3">
+      <c r="G6" s="3"/>
+      <c r="H6" s="3">
         <v>50</v>
       </c>
-      <c r="H6" s="3">
+      <c r="I6" s="3">
         <v>210</v>
       </c>
-      <c r="I6" s="3">
+      <c r="J6" s="3">
         <v>200</v>
       </c>
-      <c r="J6" s="3">
-        <v>80</v>
-      </c>
-      <c r="K6" s="3"/>
+      <c r="K6" s="3">
+        <v>80</v>
+      </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
-      <c r="N6" s="3" t="s">
+      <c r="N6" s="3"/>
+      <c r="O6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O6" s="3">
+      <c r="P6" s="3">
         <v>24</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="Q6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="3" t="s">
+      <c r="R6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="3" t="s">
+      <c r="S6" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="S6" s="3"/>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
-      <c r="V6" s="4"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="4"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -1188,42 +1200,43 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="3">
+      <c r="G7" s="3"/>
+      <c r="H7" s="3">
         <v>286</v>
       </c>
-      <c r="H7" s="3">
+      <c r="I7" s="3">
         <v>210</v>
       </c>
-      <c r="I7" s="3">
+      <c r="J7" s="3">
         <v>200</v>
       </c>
-      <c r="J7" s="3">
-        <v>80</v>
-      </c>
-      <c r="K7" s="3"/>
+      <c r="K7" s="3">
+        <v>80</v>
+      </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
-      <c r="N7" s="3" t="s">
+      <c r="N7" s="3"/>
+      <c r="O7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="O7" s="3">
+      <c r="P7" s="3">
         <v>24</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="Q7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="Q7" s="3" t="s">
+      <c r="R7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="3" t="s">
+      <c r="S7" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="S7" s="3"/>
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
-      <c r="V7" s="4"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="4"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -1234,42 +1247,43 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="3">
+      <c r="G8" s="3"/>
+      <c r="H8" s="3">
         <v>522</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>210</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>200</v>
       </c>
-      <c r="J8" s="3">
-        <v>80</v>
-      </c>
-      <c r="K8" s="3"/>
+      <c r="K8" s="3">
+        <v>80</v>
+      </c>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
-      <c r="N8" s="3" t="s">
+      <c r="N8" s="3"/>
+      <c r="O8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>24</v>
       </c>
-      <c r="P8" s="3" t="s">
+      <c r="Q8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="Q8" s="3" t="s">
+      <c r="R8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="R8" s="3" t="s">
+      <c r="S8" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="S8" s="3"/>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
-      <c r="V8" s="4"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="4"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
@@ -1280,42 +1294,43 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="3">
+      <c r="G9" s="3"/>
+      <c r="H9" s="3">
         <v>758</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>210</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>200</v>
       </c>
-      <c r="J9" s="3">
-        <v>80</v>
-      </c>
-      <c r="K9" s="3"/>
+      <c r="K9" s="3">
+        <v>80</v>
+      </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
-      <c r="N9" s="7" t="s">
+      <c r="N9" s="3"/>
+      <c r="O9" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>24</v>
       </c>
-      <c r="P9" s="3" t="s">
+      <c r="Q9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="Q9" s="3" t="s">
+      <c r="R9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="R9" s="3" t="s">
+      <c r="S9" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="S9" s="3"/>
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
-      <c r="V9" s="4"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="4"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
@@ -1326,42 +1341,43 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="3">
+      <c r="G10" s="3"/>
+      <c r="H10" s="3">
         <v>50</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>340</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>200</v>
       </c>
-      <c r="J10" s="3">
-        <v>80</v>
-      </c>
-      <c r="K10" s="3"/>
+      <c r="K10" s="3">
+        <v>80</v>
+      </c>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
-      <c r="N10" s="7" t="s">
+      <c r="N10" s="3"/>
+      <c r="O10" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>24</v>
       </c>
-      <c r="P10" s="3" t="s">
+      <c r="Q10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="Q10" s="3" t="s">
+      <c r="R10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="R10" s="3" t="s">
+      <c r="S10" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="S10" s="3"/>
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
-      <c r="V10" s="4"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="4"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
         <v>5</v>
       </c>
@@ -1372,42 +1388,43 @@
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="3">
+      <c r="G11" s="3"/>
+      <c r="H11" s="3">
         <v>286</v>
       </c>
-      <c r="H11" s="3">
+      <c r="I11" s="3">
         <v>340</v>
       </c>
-      <c r="I11" s="3">
+      <c r="J11" s="3">
         <v>200</v>
       </c>
-      <c r="J11" s="3">
-        <v>80</v>
-      </c>
-      <c r="K11" s="3"/>
+      <c r="K11" s="3">
+        <v>80</v>
+      </c>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-      <c r="N11" s="7" t="s">
+      <c r="N11" s="3"/>
+      <c r="O11" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="O11" s="3">
+      <c r="P11" s="3">
         <v>24</v>
       </c>
-      <c r="P11" s="3" t="s">
+      <c r="Q11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="Q11" s="3" t="s">
+      <c r="R11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="R11" s="3" t="s">
+      <c r="S11" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-      <c r="V11" s="4"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="4"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
         <v>5</v>
       </c>
@@ -1418,42 +1435,43 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="3">
+      <c r="G12" s="3"/>
+      <c r="H12" s="3">
         <v>522</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>340</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>200</v>
       </c>
-      <c r="J12" s="3">
-        <v>80</v>
-      </c>
-      <c r="K12" s="3"/>
+      <c r="K12" s="3">
+        <v>80</v>
+      </c>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
-      <c r="N12" s="3" t="s">
+      <c r="N12" s="3"/>
+      <c r="O12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>24</v>
       </c>
-      <c r="P12" s="3" t="s">
+      <c r="Q12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="Q12" s="3" t="s">
+      <c r="R12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="R12" s="3" t="s">
+      <c r="S12" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="S12" s="3"/>
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
-      <c r="V12" s="4"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="4"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
         <v>5</v>
       </c>
@@ -1464,42 +1482,43 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="3">
+      <c r="G13" s="3"/>
+      <c r="H13" s="3">
         <v>758</v>
       </c>
-      <c r="H13" s="3">
+      <c r="I13" s="3">
         <v>340</v>
       </c>
-      <c r="I13" s="3">
+      <c r="J13" s="3">
         <v>200</v>
       </c>
-      <c r="J13" s="3">
-        <v>80</v>
-      </c>
-      <c r="K13" s="3"/>
+      <c r="K13" s="3">
+        <v>80</v>
+      </c>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
-      <c r="N13" s="7" t="s">
+      <c r="N13" s="3"/>
+      <c r="O13" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="O13" s="3">
+      <c r="P13" s="3">
         <v>24</v>
       </c>
-      <c r="P13" s="3" t="s">
+      <c r="Q13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="Q13" s="3" t="s">
+      <c r="R13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="R13" s="3" t="s">
+      <c r="S13" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="S13" s="3"/>
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
-      <c r="V13" s="4"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="4"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
         <v>5</v>
       </c>
@@ -1510,40 +1529,41 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="3">
+      <c r="G14" s="3"/>
+      <c r="H14" s="3">
         <v>50</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>470</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>200</v>
       </c>
-      <c r="J14" s="3">
-        <v>80</v>
-      </c>
-      <c r="K14" s="3"/>
+      <c r="K14" s="3">
+        <v>80</v>
+      </c>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
-      <c r="N14" s="3" t="s">
+      <c r="N14" s="3"/>
+      <c r="O14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>24</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="S14" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="S14" s="3"/>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
-      <c r="V14" s="4"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/exe/TSV/Excel/Main_UIList.xlsx
+++ b/exe/TSV/Excel/Main_UIList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3ABD97B-BF10-4F11-BAFA-9742CC8AC54E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA4F39D-B0FD-48E0-BB81-8FC51E7AF769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8205" yWindow="5235" windowWidth="24165" windowHeight="15615" xr2:uid="{31F46B59-F167-4BD2-9521-00AA08088B07}"/>
+    <workbookView xWindow="6465" yWindow="4245" windowWidth="24090" windowHeight="15615" xr2:uid="{31F46B59-F167-4BD2-9521-00AA08088B07}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="69">
   <si>
     <t>Type</t>
     <phoneticPr fontId="1"/>
@@ -451,6 +451,18 @@
   </si>
   <si>
     <t>KeyName</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LinkedStationName</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LinkedUniqueName</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LeverType</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -855,7 +867,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDD8F3DC-5A00-45A7-84F3-974DC90E2A3E}">
-  <dimension ref="A1:X14"/>
+  <dimension ref="A1:AA14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -865,22 +877,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="7" width="18.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6" style="1" customWidth="1"/>
-    <col min="10" max="10" width="6.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13" style="1" customWidth="1"/>
-    <col min="15" max="18" width="18.75" style="1" customWidth="1"/>
-    <col min="19" max="19" width="21.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="18.75" style="1" customWidth="1"/>
-    <col min="23" max="23" width="19.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9" style="1"/>
+    <col min="1" max="10" width="18.75" style="1" customWidth="1"/>
+    <col min="11" max="11" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13" style="1" customWidth="1"/>
+    <col min="18" max="21" width="18.75" style="1" customWidth="1"/>
+    <col min="22" max="22" width="21.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="18.75" style="1" customWidth="1"/>
+    <col min="26" max="26" width="19.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -900,61 +912,70 @@
         <v>34</v>
       </c>
       <c r="G1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="AA1" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -966,42 +987,45 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="3">
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3">
         <v>50</v>
       </c>
-      <c r="I2" s="3">
+      <c r="L2" s="3">
         <v>80</v>
       </c>
-      <c r="J2" s="3">
+      <c r="M2" s="3">
         <v>200</v>
       </c>
-      <c r="K2" s="3">
+      <c r="N2" s="3">
         <v>80</v>
       </c>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P2" s="3">
+      <c r="S2" s="3">
         <v>24</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="4"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="4"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -1013,42 +1037,45 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="3">
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3">
         <v>286</v>
       </c>
-      <c r="I3" s="3">
+      <c r="L3" s="3">
         <v>80</v>
       </c>
-      <c r="J3" s="3">
+      <c r="M3" s="3">
         <v>200</v>
       </c>
-      <c r="K3" s="3">
+      <c r="N3" s="3">
         <v>80</v>
       </c>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="P3" s="3">
+      <c r="S3" s="3">
         <v>24</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="T3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="U3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="V3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="4"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="4"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -1060,42 +1087,45 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="3">
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3">
         <v>522</v>
       </c>
-      <c r="I4" s="3">
+      <c r="L4" s="3">
         <v>80</v>
       </c>
-      <c r="J4" s="3">
+      <c r="M4" s="3">
         <v>200</v>
       </c>
-      <c r="K4" s="3">
+      <c r="N4" s="3">
         <v>80</v>
       </c>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3" t="s">
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P4" s="3">
+      <c r="S4" s="3">
         <v>24</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="T4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="U4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="V4" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="4"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="4"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -1107,42 +1137,45 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="3">
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3">
         <v>758</v>
       </c>
-      <c r="I5" s="3">
+      <c r="L5" s="3">
         <v>80</v>
       </c>
-      <c r="J5" s="3">
+      <c r="M5" s="3">
         <v>200</v>
       </c>
-      <c r="K5" s="3">
+      <c r="N5" s="3">
         <v>80</v>
       </c>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3" t="s">
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="P5" s="3">
+      <c r="S5" s="3">
         <v>24</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="T5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="R5" s="3" t="s">
+      <c r="U5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="S5" s="3" t="s">
+      <c r="V5" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="4"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="4"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -1154,42 +1187,45 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="3">
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3">
         <v>50</v>
       </c>
-      <c r="I6" s="3">
+      <c r="L6" s="3">
         <v>210</v>
       </c>
-      <c r="J6" s="3">
+      <c r="M6" s="3">
         <v>200</v>
       </c>
-      <c r="K6" s="3">
+      <c r="N6" s="3">
         <v>80</v>
       </c>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3" t="s">
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P6" s="3">
+      <c r="S6" s="3">
         <v>24</v>
       </c>
-      <c r="Q6" s="3" t="s">
+      <c r="T6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="R6" s="3" t="s">
+      <c r="U6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="S6" s="3" t="s">
+      <c r="V6" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="4"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="4"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -1201,42 +1237,45 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="3">
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3">
         <v>286</v>
       </c>
-      <c r="I7" s="3">
+      <c r="L7" s="3">
         <v>210</v>
       </c>
-      <c r="J7" s="3">
+      <c r="M7" s="3">
         <v>200</v>
       </c>
-      <c r="K7" s="3">
+      <c r="N7" s="3">
         <v>80</v>
       </c>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3" t="s">
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="P7" s="3">
+      <c r="S7" s="3">
         <v>24</v>
       </c>
-      <c r="Q7" s="3" t="s">
+      <c r="T7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="R7" s="3" t="s">
+      <c r="U7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="S7" s="3" t="s">
+      <c r="V7" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="4"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="4"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -1248,42 +1287,45 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="3">
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3">
         <v>522</v>
       </c>
-      <c r="I8" s="3">
+      <c r="L8" s="3">
         <v>210</v>
       </c>
-      <c r="J8" s="3">
+      <c r="M8" s="3">
         <v>200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="N8" s="3">
         <v>80</v>
       </c>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3" t="s">
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="P8" s="3">
+      <c r="S8" s="3">
         <v>24</v>
       </c>
-      <c r="Q8" s="3" t="s">
+      <c r="T8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="R8" s="3" t="s">
+      <c r="U8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="S8" s="3" t="s">
+      <c r="V8" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="4"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="4"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
@@ -1295,42 +1337,45 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
-      <c r="H9" s="3">
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3">
         <v>758</v>
       </c>
-      <c r="I9" s="3">
+      <c r="L9" s="3">
         <v>210</v>
       </c>
-      <c r="J9" s="3">
+      <c r="M9" s="3">
         <v>200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="N9" s="3">
         <v>80</v>
       </c>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="7" t="s">
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="P9" s="3">
+      <c r="S9" s="3">
         <v>24</v>
       </c>
-      <c r="Q9" s="3" t="s">
+      <c r="T9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="R9" s="3" t="s">
+      <c r="U9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="S9" s="3" t="s">
+      <c r="V9" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="4"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="4"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
@@ -1342,42 +1387,45 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="3">
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3">
         <v>50</v>
       </c>
-      <c r="I10" s="3">
+      <c r="L10" s="3">
         <v>340</v>
       </c>
-      <c r="J10" s="3">
+      <c r="M10" s="3">
         <v>200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="N10" s="3">
         <v>80</v>
       </c>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="7" t="s">
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="P10" s="3">
+      <c r="S10" s="3">
         <v>24</v>
       </c>
-      <c r="Q10" s="3" t="s">
+      <c r="T10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="R10" s="3" t="s">
+      <c r="U10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="S10" s="3" t="s">
+      <c r="V10" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
-      <c r="W10" s="4"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="4"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
         <v>5</v>
       </c>
@@ -1389,42 +1437,45 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="3">
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3">
         <v>286</v>
       </c>
-      <c r="I11" s="3">
+      <c r="L11" s="3">
         <v>340</v>
       </c>
-      <c r="J11" s="3">
+      <c r="M11" s="3">
         <v>200</v>
       </c>
-      <c r="K11" s="3">
+      <c r="N11" s="3">
         <v>80</v>
       </c>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="7" t="s">
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="P11" s="3">
+      <c r="S11" s="3">
         <v>24</v>
       </c>
-      <c r="Q11" s="3" t="s">
+      <c r="T11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="R11" s="3" t="s">
+      <c r="U11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="S11" s="3" t="s">
+      <c r="V11" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="4"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="4"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
         <v>5</v>
       </c>
@@ -1436,42 +1487,45 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="3">
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3">
         <v>522</v>
       </c>
-      <c r="I12" s="3">
+      <c r="L12" s="3">
         <v>340</v>
       </c>
-      <c r="J12" s="3">
+      <c r="M12" s="3">
         <v>200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="N12" s="3">
         <v>80</v>
       </c>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3" t="s">
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="P12" s="3">
+      <c r="S12" s="3">
         <v>24</v>
       </c>
-      <c r="Q12" s="3" t="s">
+      <c r="T12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="R12" s="3" t="s">
+      <c r="U12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="S12" s="3" t="s">
+      <c r="V12" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="4"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="4"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
         <v>5</v>
       </c>
@@ -1483,42 +1537,45 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="3">
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3">
         <v>758</v>
       </c>
-      <c r="I13" s="3">
+      <c r="L13" s="3">
         <v>340</v>
       </c>
-      <c r="J13" s="3">
+      <c r="M13" s="3">
         <v>200</v>
       </c>
-      <c r="K13" s="3">
+      <c r="N13" s="3">
         <v>80</v>
       </c>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="7" t="s">
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="P13" s="3">
+      <c r="S13" s="3">
         <v>24</v>
       </c>
-      <c r="Q13" s="3" t="s">
+      <c r="T13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="R13" s="3" t="s">
+      <c r="U13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="S13" s="3" t="s">
+      <c r="V13" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
-      <c r="W13" s="4"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="4"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
         <v>5</v>
       </c>
@@ -1530,40 +1587,43 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="3">
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3">
         <v>50</v>
       </c>
-      <c r="I14" s="3">
+      <c r="L14" s="3">
         <v>470</v>
       </c>
-      <c r="J14" s="3">
+      <c r="M14" s="3">
         <v>200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="N14" s="3">
         <v>80</v>
       </c>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3" t="s">
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="P14" s="3">
+      <c r="S14" s="3">
         <v>24</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="T14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="U14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="S14" s="3" t="s">
+      <c r="V14" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="4"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/exe/TSV/Excel/Main_UIList.xlsx
+++ b/exe/TSV/Excel/Main_UIList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA4F39D-B0FD-48E0-BB81-8FC51E7AF769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB6E29D8-2992-4BE3-A20B-1414E5F379B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6465" yWindow="4245" windowWidth="24090" windowHeight="15615" xr2:uid="{31F46B59-F167-4BD2-9521-00AA08088B07}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="24000" windowHeight="15540" xr2:uid="{31F46B59-F167-4BD2-9521-00AA08088B07}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="70">
   <si>
     <t>Type</t>
     <phoneticPr fontId="1"/>
@@ -463,6 +463,10 @@
   </si>
   <si>
     <t>LeverType</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ServerType</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -867,7 +871,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDD8F3DC-5A00-45A7-84F3-974DC90E2A3E}">
-  <dimension ref="A1:AA14"/>
+  <dimension ref="A1:AB14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -877,22 +881,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="10" width="18.75" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6" style="1" customWidth="1"/>
-    <col min="13" max="13" width="6.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13" style="1" customWidth="1"/>
-    <col min="18" max="21" width="18.75" style="1" customWidth="1"/>
-    <col min="22" max="22" width="21.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="18.75" style="1" customWidth="1"/>
-    <col min="26" max="26" width="19.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9" style="1"/>
+    <col min="1" max="11" width="18.75" style="1" customWidth="1"/>
+    <col min="12" max="12" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6" style="1" customWidth="1"/>
+    <col min="14" max="14" width="6.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13" style="1" customWidth="1"/>
+    <col min="19" max="22" width="18.75" style="1" customWidth="1"/>
+    <col min="23" max="23" width="21.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="18.75" style="1" customWidth="1"/>
+    <col min="27" max="27" width="19.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -900,82 +904,85 @@
         <v>18</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="E1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AB1" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -990,42 +997,43 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
-      <c r="K2" s="3">
+      <c r="K2" s="3"/>
+      <c r="L2" s="3">
         <v>50</v>
       </c>
-      <c r="L2" s="3">
+      <c r="M2" s="3">
         <v>80</v>
       </c>
-      <c r="M2" s="3">
+      <c r="N2" s="3">
         <v>200</v>
       </c>
-      <c r="N2" s="3">
+      <c r="O2" s="3">
         <v>80</v>
       </c>
-      <c r="O2" s="3"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
-      <c r="R2" s="3" t="s">
+      <c r="R2" s="3"/>
+      <c r="S2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="S2" s="3">
+      <c r="T2" s="3">
         <v>24</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="W2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="W2" s="3"/>
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
-      <c r="Z2" s="4"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="4"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -1040,42 +1048,43 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
-      <c r="K3" s="3">
+      <c r="K3" s="3"/>
+      <c r="L3" s="3">
         <v>286</v>
       </c>
-      <c r="L3" s="3">
+      <c r="M3" s="3">
         <v>80</v>
       </c>
-      <c r="M3" s="3">
+      <c r="N3" s="3">
         <v>200</v>
       </c>
-      <c r="N3" s="3">
+      <c r="O3" s="3">
         <v>80</v>
       </c>
-      <c r="O3" s="3"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
-      <c r="R3" s="3" t="s">
+      <c r="R3" s="3"/>
+      <c r="S3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="S3" s="3">
+      <c r="T3" s="3">
         <v>24</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="U3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="V3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="W3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="W3" s="3"/>
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
-      <c r="Z3" s="4"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="4"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -1090,42 +1099,43 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
-      <c r="K4" s="3">
+      <c r="K4" s="3"/>
+      <c r="L4" s="3">
         <v>522</v>
       </c>
-      <c r="L4" s="3">
+      <c r="M4" s="3">
         <v>80</v>
       </c>
-      <c r="M4" s="3">
+      <c r="N4" s="3">
         <v>200</v>
       </c>
-      <c r="N4" s="3">
+      <c r="O4" s="3">
         <v>80</v>
       </c>
-      <c r="O4" s="3"/>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
-      <c r="R4" s="3" t="s">
+      <c r="R4" s="3"/>
+      <c r="S4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="S4" s="3">
+      <c r="T4" s="3">
         <v>24</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="U4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="V4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="W4" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="W4" s="3"/>
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
-      <c r="Z4" s="4"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="4"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -1140,42 +1150,43 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
-      <c r="K5" s="3">
+      <c r="K5" s="3"/>
+      <c r="L5" s="3">
         <v>758</v>
       </c>
-      <c r="L5" s="3">
+      <c r="M5" s="3">
         <v>80</v>
       </c>
-      <c r="M5" s="3">
+      <c r="N5" s="3">
         <v>200</v>
       </c>
-      <c r="N5" s="3">
+      <c r="O5" s="3">
         <v>80</v>
       </c>
-      <c r="O5" s="3"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
-      <c r="R5" s="3" t="s">
+      <c r="R5" s="3"/>
+      <c r="S5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="S5" s="3">
+      <c r="T5" s="3">
         <v>24</v>
       </c>
-      <c r="T5" s="3" t="s">
+      <c r="U5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="U5" s="3" t="s">
+      <c r="V5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="V5" s="3" t="s">
+      <c r="W5" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="W5" s="3"/>
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
-      <c r="Z5" s="4"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="4"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -1190,42 +1201,43 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
-      <c r="K6" s="3">
+      <c r="K6" s="3"/>
+      <c r="L6" s="3">
         <v>50</v>
       </c>
-      <c r="L6" s="3">
+      <c r="M6" s="3">
         <v>210</v>
       </c>
-      <c r="M6" s="3">
+      <c r="N6" s="3">
         <v>200</v>
       </c>
-      <c r="N6" s="3">
+      <c r="O6" s="3">
         <v>80</v>
       </c>
-      <c r="O6" s="3"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
-      <c r="R6" s="3" t="s">
+      <c r="R6" s="3"/>
+      <c r="S6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S6" s="3">
+      <c r="T6" s="3">
         <v>24</v>
       </c>
-      <c r="T6" s="3" t="s">
+      <c r="U6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="U6" s="3" t="s">
+      <c r="V6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="V6" s="3" t="s">
+      <c r="W6" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="W6" s="3"/>
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
-      <c r="Z6" s="4"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="4"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -1240,42 +1252,43 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
-      <c r="K7" s="3">
+      <c r="K7" s="3"/>
+      <c r="L7" s="3">
         <v>286</v>
       </c>
-      <c r="L7" s="3">
+      <c r="M7" s="3">
         <v>210</v>
       </c>
-      <c r="M7" s="3">
+      <c r="N7" s="3">
         <v>200</v>
       </c>
-      <c r="N7" s="3">
+      <c r="O7" s="3">
         <v>80</v>
       </c>
-      <c r="O7" s="3"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
-      <c r="R7" s="3" t="s">
+      <c r="R7" s="3"/>
+      <c r="S7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="S7" s="3">
+      <c r="T7" s="3">
         <v>24</v>
       </c>
-      <c r="T7" s="3" t="s">
+      <c r="U7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="U7" s="3" t="s">
+      <c r="V7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="V7" s="3" t="s">
+      <c r="W7" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="W7" s="3"/>
       <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
-      <c r="Z7" s="4"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="4"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -1290,42 +1303,43 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
-      <c r="K8" s="3">
+      <c r="K8" s="3"/>
+      <c r="L8" s="3">
         <v>522</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>210</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>80</v>
       </c>
-      <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
-      <c r="R8" s="3" t="s">
+      <c r="R8" s="3"/>
+      <c r="S8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>24</v>
       </c>
-      <c r="T8" s="3" t="s">
+      <c r="U8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="U8" s="3" t="s">
+      <c r="V8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="V8" s="3" t="s">
+      <c r="W8" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="W8" s="3"/>
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
-      <c r="Z8" s="4"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="4"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
@@ -1340,42 +1354,43 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
-      <c r="K9" s="3">
+      <c r="K9" s="3"/>
+      <c r="L9" s="3">
         <v>758</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>210</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>80</v>
       </c>
-      <c r="O9" s="3"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
-      <c r="R9" s="7" t="s">
+      <c r="R9" s="3"/>
+      <c r="S9" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>24</v>
       </c>
-      <c r="T9" s="3" t="s">
+      <c r="U9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="U9" s="3" t="s">
+      <c r="V9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="V9" s="3" t="s">
+      <c r="W9" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="W9" s="3"/>
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
-      <c r="Z9" s="4"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="4"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
@@ -1390,42 +1405,43 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
-      <c r="K10" s="3">
+      <c r="K10" s="3"/>
+      <c r="L10" s="3">
         <v>50</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>340</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>80</v>
       </c>
-      <c r="O10" s="3"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
-      <c r="R10" s="7" t="s">
+      <c r="R10" s="3"/>
+      <c r="S10" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>24</v>
       </c>
-      <c r="T10" s="3" t="s">
+      <c r="U10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="U10" s="3" t="s">
+      <c r="V10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="V10" s="3" t="s">
+      <c r="W10" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="W10" s="3"/>
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
-      <c r="Z10" s="4"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="4"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
         <v>5</v>
       </c>
@@ -1440,42 +1456,43 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
-      <c r="K11" s="3">
+      <c r="K11" s="3"/>
+      <c r="L11" s="3">
         <v>286</v>
       </c>
-      <c r="L11" s="3">
+      <c r="M11" s="3">
         <v>340</v>
       </c>
-      <c r="M11" s="3">
+      <c r="N11" s="3">
         <v>200</v>
       </c>
-      <c r="N11" s="3">
+      <c r="O11" s="3">
         <v>80</v>
       </c>
-      <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-      <c r="R11" s="7" t="s">
+      <c r="R11" s="3"/>
+      <c r="S11" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="S11" s="3">
+      <c r="T11" s="3">
         <v>24</v>
       </c>
-      <c r="T11" s="3" t="s">
+      <c r="U11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="U11" s="3" t="s">
+      <c r="V11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="V11" s="3" t="s">
+      <c r="W11" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-      <c r="Z11" s="4"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="4"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
         <v>5</v>
       </c>
@@ -1490,42 +1507,43 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
-      <c r="K12" s="3">
+      <c r="K12" s="3"/>
+      <c r="L12" s="3">
         <v>522</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>340</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>80</v>
       </c>
-      <c r="O12" s="3"/>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
-      <c r="R12" s="3" t="s">
+      <c r="R12" s="3"/>
+      <c r="S12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>24</v>
       </c>
-      <c r="T12" s="3" t="s">
+      <c r="U12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="U12" s="3" t="s">
+      <c r="V12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="V12" s="3" t="s">
+      <c r="W12" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="W12" s="3"/>
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
-      <c r="Z12" s="4"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="4"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
         <v>5</v>
       </c>
@@ -1540,42 +1558,43 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
-      <c r="K13" s="3">
+      <c r="K13" s="3"/>
+      <c r="L13" s="3">
         <v>758</v>
       </c>
-      <c r="L13" s="3">
+      <c r="M13" s="3">
         <v>340</v>
       </c>
-      <c r="M13" s="3">
+      <c r="N13" s="3">
         <v>200</v>
       </c>
-      <c r="N13" s="3">
+      <c r="O13" s="3">
         <v>80</v>
       </c>
-      <c r="O13" s="3"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
-      <c r="R13" s="7" t="s">
+      <c r="R13" s="3"/>
+      <c r="S13" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="S13" s="3">
+      <c r="T13" s="3">
         <v>24</v>
       </c>
-      <c r="T13" s="3" t="s">
+      <c r="U13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="U13" s="3" t="s">
+      <c r="V13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="V13" s="3" t="s">
+      <c r="W13" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="W13" s="3"/>
       <c r="X13" s="3"/>
       <c r="Y13" s="3"/>
-      <c r="Z13" s="4"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="4"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
         <v>5</v>
       </c>
@@ -1590,40 +1609,41 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
-      <c r="K14" s="3">
+      <c r="K14" s="3"/>
+      <c r="L14" s="3">
         <v>50</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>470</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>80</v>
       </c>
-      <c r="O14" s="3"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
-      <c r="R14" s="3" t="s">
+      <c r="R14" s="3"/>
+      <c r="S14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>24</v>
       </c>
-      <c r="T14" s="3" t="s">
+      <c r="U14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="U14" s="3" t="s">
+      <c r="V14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="V14" s="3" t="s">
+      <c r="W14" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="W14" s="3"/>
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
-      <c r="Z14" s="4"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/exe/TSV/Excel/Main_UIList.xlsx
+++ b/exe/TSV/Excel/Main_UIList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB6E29D8-2992-4BE3-A20B-1414E5F379B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC7DB36-E2BC-4C2F-B366-B8D24802EE3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="24000" windowHeight="15540" xr2:uid="{31F46B59-F167-4BD2-9521-00AA08088B07}"/>
+    <workbookView xWindow="3960" yWindow="4110" windowWidth="24000" windowHeight="15540" xr2:uid="{31F46B59-F167-4BD2-9521-00AA08088B07}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="72">
   <si>
     <t>Type</t>
     <phoneticPr fontId="1"/>
@@ -304,14 +304,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>PointName</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PointValue</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>藤江駅</t>
     <rPh sb="0" eb="2">
       <t>フジエ</t>
@@ -386,14 +378,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Button_TH66</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TH66_Enohara-Inspection</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Button_TH65</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -467,6 +451,30 @@
   </si>
   <si>
     <t>ServerType</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Button_TH66S</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TH66S_Enohara-Inspection</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PointNameA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PointValueA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PointNameB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PointValueB</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -871,7 +879,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDD8F3DC-5A00-45A7-84F3-974DC90E2A3E}">
-  <dimension ref="A1:AB14"/>
+  <dimension ref="A1:AD14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -881,22 +889,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="11" width="18.75" style="1" customWidth="1"/>
-    <col min="12" max="12" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6" style="1" customWidth="1"/>
-    <col min="14" max="14" width="6.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13" style="1" customWidth="1"/>
-    <col min="19" max="22" width="18.75" style="1" customWidth="1"/>
-    <col min="23" max="23" width="21.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="26" width="18.75" style="1" customWidth="1"/>
-    <col min="27" max="27" width="19.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9" style="1"/>
+    <col min="1" max="13" width="18.75" style="1" customWidth="1"/>
+    <col min="14" max="14" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6" style="1" customWidth="1"/>
+    <col min="16" max="16" width="6.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13" style="1" customWidth="1"/>
+    <col min="21" max="24" width="18.75" style="1" customWidth="1"/>
+    <col min="25" max="25" width="21.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="18.75" style="1" customWidth="1"/>
+    <col min="29" max="29" width="19.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -910,84 +918,90 @@
         <v>17</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>34</v>
-      </c>
       <c r="H1" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="L1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AC1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AD1" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -998,47 +1012,49 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
-      <c r="L2" s="3">
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3">
         <v>50</v>
-      </c>
-      <c r="M2" s="3">
-        <v>80</v>
-      </c>
-      <c r="N2" s="3">
-        <v>200</v>
       </c>
       <c r="O2" s="3">
         <v>80</v>
       </c>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
+      <c r="P2" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>80</v>
+      </c>
       <c r="R2" s="3"/>
-      <c r="S2" s="3" t="s">
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="T2" s="3">
+      <c r="V2" s="3">
         <v>24</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="W2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="X2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="W2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
+      <c r="Y2" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="Z2" s="3"/>
-      <c r="AA2" s="4"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="4"/>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -1049,47 +1065,49 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
-      <c r="L3" s="3">
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3">
         <v>286</v>
-      </c>
-      <c r="M3" s="3">
-        <v>80</v>
-      </c>
-      <c r="N3" s="3">
-        <v>200</v>
       </c>
       <c r="O3" s="3">
         <v>80</v>
       </c>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
+      <c r="P3" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>80</v>
+      </c>
       <c r="R3" s="3"/>
-      <c r="S3" s="3" t="s">
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="T3" s="3">
+      <c r="V3" s="3">
         <v>24</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="W3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="X3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="W3" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
+      <c r="Y3" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="Z3" s="3"/>
-      <c r="AA3" s="4"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="4"/>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -1100,47 +1118,49 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
-      <c r="L4" s="3">
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3">
         <v>522</v>
-      </c>
-      <c r="M4" s="3">
-        <v>80</v>
-      </c>
-      <c r="N4" s="3">
-        <v>200</v>
       </c>
       <c r="O4" s="3">
         <v>80</v>
       </c>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
+      <c r="P4" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>80</v>
+      </c>
       <c r="R4" s="3"/>
-      <c r="S4" s="3" t="s">
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="T4" s="3">
+      <c r="V4" s="3">
         <v>24</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="W4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="X4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="W4" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
+      <c r="Y4" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="Z4" s="3"/>
-      <c r="AA4" s="4"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="4"/>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -1151,47 +1171,49 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
-      <c r="L5" s="3">
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3">
         <v>758</v>
-      </c>
-      <c r="M5" s="3">
-        <v>80</v>
-      </c>
-      <c r="N5" s="3">
-        <v>200</v>
       </c>
       <c r="O5" s="3">
         <v>80</v>
       </c>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
+      <c r="P5" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>80</v>
+      </c>
       <c r="R5" s="3"/>
-      <c r="S5" s="3" t="s">
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="T5" s="3">
+      <c r="V5" s="3">
         <v>24</v>
       </c>
-      <c r="U5" s="3" t="s">
+      <c r="W5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="V5" s="3" t="s">
+      <c r="X5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="W5" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
+      <c r="Y5" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="Z5" s="3"/>
-      <c r="AA5" s="4"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="4"/>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -1202,47 +1224,49 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
-      <c r="L6" s="3">
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3">
         <v>50</v>
       </c>
-      <c r="M6" s="3">
+      <c r="O6" s="3">
         <v>210</v>
       </c>
-      <c r="N6" s="3">
+      <c r="P6" s="3">
         <v>200</v>
       </c>
-      <c r="O6" s="3">
+      <c r="Q6" s="3">
         <v>80</v>
       </c>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
-      <c r="S6" s="3" t="s">
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="T6" s="3">
+      <c r="V6" s="3">
         <v>24</v>
       </c>
-      <c r="U6" s="3" t="s">
+      <c r="W6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="V6" s="3" t="s">
+      <c r="X6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="W6" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
+      <c r="Y6" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="Z6" s="3"/>
-      <c r="AA6" s="4"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="4"/>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -1253,47 +1277,49 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
-      <c r="L7" s="3">
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3">
         <v>286</v>
       </c>
-      <c r="M7" s="3">
+      <c r="O7" s="3">
         <v>210</v>
       </c>
-      <c r="N7" s="3">
+      <c r="P7" s="3">
         <v>200</v>
       </c>
-      <c r="O7" s="3">
+      <c r="Q7" s="3">
         <v>80</v>
       </c>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
-      <c r="S7" s="3" t="s">
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="T7" s="3">
+      <c r="V7" s="3">
         <v>24</v>
       </c>
-      <c r="U7" s="3" t="s">
+      <c r="W7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="V7" s="3" t="s">
+      <c r="X7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="W7" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
+      <c r="Y7" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="Z7" s="3"/>
-      <c r="AA7" s="4"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="4"/>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -1304,47 +1330,49 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
-      <c r="L8" s="3">
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3">
         <v>522</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>210</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>80</v>
       </c>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
-      <c r="S8" s="3" t="s">
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>24</v>
       </c>
-      <c r="U8" s="3" t="s">
+      <c r="W8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="V8" s="3" t="s">
+      <c r="X8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="W8" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
+      <c r="Y8" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="Z8" s="3"/>
-      <c r="AA8" s="4"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="4"/>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -1355,47 +1383,49 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
-      <c r="L9" s="3">
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3">
         <v>758</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>210</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>80</v>
       </c>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
-      <c r="S9" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="T9" s="3">
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="V9" s="3">
         <v>24</v>
       </c>
-      <c r="U9" s="3" t="s">
+      <c r="W9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="V9" s="3" t="s">
+      <c r="X9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="W9" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="X9" s="3"/>
-      <c r="Y9" s="3"/>
+      <c r="Y9" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="Z9" s="3"/>
-      <c r="AA9" s="4"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="4"/>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -1406,47 +1436,49 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
-      <c r="L10" s="3">
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3">
         <v>50</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>340</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>80</v>
       </c>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
-      <c r="S10" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="T10" s="3">
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="V10" s="3">
         <v>24</v>
       </c>
-      <c r="U10" s="3" t="s">
+      <c r="W10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="V10" s="3" t="s">
+      <c r="X10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="W10" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="X10" s="3"/>
-      <c r="Y10" s="3"/>
+      <c r="Y10" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="Z10" s="3"/>
-      <c r="AA10" s="4"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="4"/>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -1457,47 +1489,49 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-      <c r="L11" s="3">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3">
         <v>286</v>
       </c>
-      <c r="M11" s="3">
+      <c r="O11" s="3">
         <v>340</v>
       </c>
-      <c r="N11" s="3">
+      <c r="P11" s="3">
         <v>200</v>
       </c>
-      <c r="O11" s="3">
+      <c r="Q11" s="3">
         <v>80</v>
       </c>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-      <c r="S11" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="T11" s="3">
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="V11" s="3">
         <v>24</v>
       </c>
-      <c r="U11" s="3" t="s">
+      <c r="W11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="V11" s="3" t="s">
+      <c r="X11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="W11" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="X11" s="3"/>
-      <c r="Y11" s="3"/>
+      <c r="Y11" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="Z11" s="3"/>
-      <c r="AA11" s="4"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="4"/>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -1508,47 +1542,49 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
-      <c r="L12" s="3">
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3">
         <v>522</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>340</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>80</v>
       </c>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
-      <c r="S12" s="3" t="s">
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>24</v>
       </c>
-      <c r="U12" s="3" t="s">
+      <c r="W12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="V12" s="3" t="s">
+      <c r="X12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="W12" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="3"/>
+      <c r="Y12" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="Z12" s="3"/>
-      <c r="AA12" s="4"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="4"/>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -1559,47 +1595,49 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
-      <c r="L13" s="3">
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3">
         <v>758</v>
       </c>
-      <c r="M13" s="3">
+      <c r="O13" s="3">
         <v>340</v>
       </c>
-      <c r="N13" s="3">
+      <c r="P13" s="3">
         <v>200</v>
       </c>
-      <c r="O13" s="3">
+      <c r="Q13" s="3">
         <v>80</v>
       </c>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
-      <c r="S13" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="T13" s="3">
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="V13" s="3">
         <v>24</v>
       </c>
-      <c r="U13" s="3" t="s">
+      <c r="W13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="V13" s="3" t="s">
+      <c r="X13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="W13" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="3"/>
+      <c r="Y13" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="Z13" s="3"/>
-      <c r="AA13" s="4"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="4"/>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -1610,40 +1648,42 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
-      <c r="L14" s="3">
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3">
         <v>50</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>470</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>80</v>
       </c>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
-      <c r="S14" s="3" t="s">
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>24</v>
       </c>
-      <c r="U14" s="3" t="s">
+      <c r="W14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="V14" s="3" t="s">
+      <c r="X14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
+      <c r="Y14" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="Z14" s="3"/>
-      <c r="AA14" s="4"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/exe/TSV/Excel/Main_UIList.xlsx
+++ b/exe/TSV/Excel/Main_UIList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC7DB36-E2BC-4C2F-B366-B8D24802EE3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39BB7B53-CB9E-4B7F-A589-823FC5325B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="4110" windowWidth="24000" windowHeight="15540" xr2:uid="{31F46B59-F167-4BD2-9521-00AA08088B07}"/>
+    <workbookView xWindow="4635" yWindow="4140" windowWidth="24000" windowHeight="15540" xr2:uid="{31F46B59-F167-4BD2-9521-00AA08088B07}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="68">
   <si>
     <t>Type</t>
     <phoneticPr fontId="1"/>
@@ -431,22 +431,6 @@
   </si>
   <si>
     <t>TH58_Akayamacho</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KeyName</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>LinkedStationName</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>LinkedUniqueName</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>LeverType</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -879,32 +863,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDD8F3DC-5A00-45A7-84F3-974DC90E2A3E}">
-  <dimension ref="A1:AD14"/>
+  <dimension ref="A1:Z14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="13" width="18.75" style="1" customWidth="1"/>
-    <col min="14" max="14" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6" style="1" customWidth="1"/>
-    <col min="16" max="16" width="6.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13" style="1" customWidth="1"/>
-    <col min="21" max="24" width="18.75" style="1" customWidth="1"/>
-    <col min="25" max="25" width="21.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="28" width="18.75" style="1" customWidth="1"/>
-    <col min="29" max="29" width="19.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9" style="1"/>
+    <col min="1" max="9" width="18.75" style="1" customWidth="1"/>
+    <col min="10" max="10" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6" style="1" customWidth="1"/>
+    <col min="12" max="12" width="6.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13" style="1" customWidth="1"/>
+    <col min="17" max="20" width="18.75" style="1" customWidth="1"/>
+    <col min="21" max="21" width="21.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="18.75" style="1" customWidth="1"/>
+    <col min="25" max="25" width="19.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -918,85 +902,73 @@
         <v>17</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>69</v>
-      </c>
       <c r="H1" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>63</v>
+        <v>2</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="W1" s="5" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="X1" s="5" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="Y1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="Z1" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -1010,46 +982,42 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3">
+      <c r="J2" s="3">
         <v>50</v>
       </c>
-      <c r="O2" s="3">
+      <c r="K2" s="3">
         <v>80</v>
       </c>
-      <c r="P2" s="3">
+      <c r="L2" s="3">
         <v>200</v>
       </c>
-      <c r="Q2" s="3">
+      <c r="M2" s="3">
         <v>80</v>
       </c>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="R2" s="3">
+        <v>24</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="U2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="V2" s="3">
-        <v>24</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="4"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="4"/>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -1063,46 +1031,42 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3">
+      <c r="J3" s="3">
         <v>286</v>
       </c>
-      <c r="O3" s="3">
+      <c r="K3" s="3">
         <v>80</v>
       </c>
-      <c r="P3" s="3">
+      <c r="L3" s="3">
         <v>200</v>
       </c>
-      <c r="Q3" s="3">
+      <c r="M3" s="3">
         <v>80</v>
       </c>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R3" s="3">
+        <v>24</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="U3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="V3" s="3">
-        <v>24</v>
-      </c>
-      <c r="W3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="X3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="4"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="4"/>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -1116,46 +1080,42 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3">
+      <c r="J4" s="3">
         <v>522</v>
       </c>
-      <c r="O4" s="3">
+      <c r="K4" s="3">
         <v>80</v>
       </c>
-      <c r="P4" s="3">
+      <c r="L4" s="3">
         <v>200</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="M4" s="3">
         <v>80</v>
       </c>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="R4" s="3">
+        <v>24</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="U4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="V4" s="3">
-        <v>24</v>
-      </c>
-      <c r="W4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="X4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="3"/>
-      <c r="AB4" s="3"/>
-      <c r="AC4" s="4"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="4"/>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -1169,46 +1129,42 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3">
+      <c r="J5" s="3">
         <v>758</v>
       </c>
-      <c r="O5" s="3">
+      <c r="K5" s="3">
         <v>80</v>
       </c>
-      <c r="P5" s="3">
+      <c r="L5" s="3">
         <v>200</v>
       </c>
-      <c r="Q5" s="3">
+      <c r="M5" s="3">
         <v>80</v>
       </c>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="R5" s="3">
+        <v>24</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="U5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="V5" s="3">
-        <v>24</v>
-      </c>
-      <c r="W5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="X5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y5" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="Z5" s="3"/>
-      <c r="AA5" s="3"/>
-      <c r="AB5" s="3"/>
-      <c r="AC5" s="4"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="4"/>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -1222,51 +1178,47 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3">
+      <c r="J6" s="3">
         <v>50</v>
       </c>
-      <c r="O6" s="3">
+      <c r="K6" s="3">
         <v>210</v>
       </c>
-      <c r="P6" s="3">
+      <c r="L6" s="3">
         <v>200</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="M6" s="3">
         <v>80</v>
       </c>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R6" s="3">
+        <v>24</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="U6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="V6" s="3">
-        <v>24</v>
-      </c>
-      <c r="W6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="X6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="Z6" s="3"/>
-      <c r="AA6" s="3"/>
-      <c r="AB6" s="3"/>
-      <c r="AC6" s="4"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="4"/>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -1275,46 +1227,42 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3">
+      <c r="J7" s="3">
         <v>286</v>
       </c>
-      <c r="O7" s="3">
+      <c r="K7" s="3">
         <v>210</v>
       </c>
-      <c r="P7" s="3">
+      <c r="L7" s="3">
         <v>200</v>
       </c>
-      <c r="Q7" s="3">
+      <c r="M7" s="3">
         <v>80</v>
       </c>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="R7" s="3">
+        <v>24</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="U7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="V7" s="3">
-        <v>24</v>
-      </c>
-      <c r="W7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="X7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y7" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z7" s="3"/>
-      <c r="AA7" s="3"/>
-      <c r="AB7" s="3"/>
-      <c r="AC7" s="4"/>
+        <v>63</v>
+      </c>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="4"/>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -1328,46 +1276,42 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3">
+      <c r="J8" s="3">
         <v>522</v>
       </c>
-      <c r="O8" s="3">
+      <c r="K8" s="3">
         <v>210</v>
       </c>
-      <c r="P8" s="3">
+      <c r="L8" s="3">
         <v>200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="M8" s="3">
         <v>80</v>
       </c>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="R8" s="3">
+        <v>24</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="U8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="V8" s="3">
-        <v>24</v>
-      </c>
-      <c r="W8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="X8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y8" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="Z8" s="3"/>
-      <c r="AA8" s="3"/>
-      <c r="AB8" s="3"/>
-      <c r="AC8" s="4"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="4"/>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
@@ -1381,46 +1325,42 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3">
+      <c r="J9" s="3">
         <v>758</v>
       </c>
-      <c r="O9" s="3">
+      <c r="K9" s="3">
         <v>210</v>
       </c>
-      <c r="P9" s="3">
+      <c r="L9" s="3">
         <v>200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="M9" s="3">
         <v>80</v>
       </c>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="7" t="s">
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="V9" s="3">
+      <c r="R9" s="3">
         <v>24</v>
       </c>
-      <c r="W9" s="3" t="s">
+      <c r="S9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="X9" s="3" t="s">
+      <c r="T9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="Y9" s="3" t="s">
+      <c r="U9" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="Z9" s="3"/>
-      <c r="AA9" s="3"/>
-      <c r="AB9" s="3"/>
-      <c r="AC9" s="4"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="4"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
@@ -1434,46 +1374,42 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3">
+      <c r="J10" s="3">
         <v>50</v>
       </c>
-      <c r="O10" s="3">
+      <c r="K10" s="3">
         <v>340</v>
       </c>
-      <c r="P10" s="3">
+      <c r="L10" s="3">
         <v>200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="M10" s="3">
         <v>80</v>
       </c>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="7" t="s">
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="V10" s="3">
+      <c r="R10" s="3">
         <v>24</v>
       </c>
-      <c r="W10" s="3" t="s">
+      <c r="S10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="X10" s="3" t="s">
+      <c r="T10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="Y10" s="3" t="s">
+      <c r="U10" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="Z10" s="3"/>
-      <c r="AA10" s="3"/>
-      <c r="AB10" s="3"/>
-      <c r="AC10" s="4"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
         <v>5</v>
       </c>
@@ -1487,46 +1423,42 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3">
+      <c r="J11" s="3">
         <v>286</v>
       </c>
-      <c r="O11" s="3">
+      <c r="K11" s="3">
         <v>340</v>
       </c>
-      <c r="P11" s="3">
+      <c r="L11" s="3">
         <v>200</v>
       </c>
-      <c r="Q11" s="3">
+      <c r="M11" s="3">
         <v>80</v>
       </c>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="7" t="s">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="V11" s="3">
+      <c r="R11" s="3">
         <v>24</v>
       </c>
-      <c r="W11" s="3" t="s">
+      <c r="S11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="X11" s="3" t="s">
+      <c r="T11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="Y11" s="3" t="s">
+      <c r="U11" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="Z11" s="3"/>
-      <c r="AA11" s="3"/>
-      <c r="AB11" s="3"/>
-      <c r="AC11" s="4"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="4"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
         <v>5</v>
       </c>
@@ -1540,46 +1472,42 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3">
+      <c r="J12" s="3">
         <v>522</v>
       </c>
-      <c r="O12" s="3">
+      <c r="K12" s="3">
         <v>340</v>
       </c>
-      <c r="P12" s="3">
+      <c r="L12" s="3">
         <v>200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="M12" s="3">
         <v>80</v>
       </c>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R12" s="3">
+        <v>24</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="U12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="V12" s="3">
-        <v>24</v>
-      </c>
-      <c r="W12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="X12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y12" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="Z12" s="3"/>
-      <c r="AA12" s="3"/>
-      <c r="AB12" s="3"/>
-      <c r="AC12" s="4"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="4"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
         <v>5</v>
       </c>
@@ -1593,46 +1521,42 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3">
+      <c r="J13" s="3">
         <v>758</v>
       </c>
-      <c r="O13" s="3">
+      <c r="K13" s="3">
         <v>340</v>
       </c>
-      <c r="P13" s="3">
+      <c r="L13" s="3">
         <v>200</v>
       </c>
-      <c r="Q13" s="3">
+      <c r="M13" s="3">
         <v>80</v>
       </c>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="7" t="s">
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="V13" s="3">
+      <c r="R13" s="3">
         <v>24</v>
       </c>
-      <c r="W13" s="3" t="s">
+      <c r="S13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="X13" s="3" t="s">
+      <c r="T13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="Y13" s="3" t="s">
+      <c r="U13" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="Z13" s="3"/>
-      <c r="AA13" s="3"/>
-      <c r="AB13" s="3"/>
-      <c r="AC13" s="4"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="4"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
         <v>5</v>
       </c>
@@ -1646,44 +1570,40 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3">
+      <c r="J14" s="3">
         <v>50</v>
       </c>
-      <c r="O14" s="3">
+      <c r="K14" s="3">
         <v>470</v>
       </c>
-      <c r="P14" s="3">
+      <c r="L14" s="3">
         <v>200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="M14" s="3">
         <v>80</v>
       </c>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="R14" s="3">
+        <v>24</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="U14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="V14" s="3">
-        <v>24</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="X14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y14" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="Z14" s="3"/>
-      <c r="AA14" s="3"/>
-      <c r="AB14" s="3"/>
-      <c r="AC14" s="4"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/exe/TSV/Excel/Main_UIList.xlsx
+++ b/exe/TSV/Excel/Main_UIList.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39BB7B53-CB9E-4B7F-A589-823FC5325B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1BA880F-25AF-4ECB-AF96-36C85A6DA353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4635" yWindow="4140" windowWidth="24000" windowHeight="15540" xr2:uid="{31F46B59-F167-4BD2-9521-00AA08088B07}"/>
+    <workbookView xWindow="6690" yWindow="3495" windowWidth="24000" windowHeight="15540" xr2:uid="{31F46B59-F167-4BD2-9521-00AA08088B07}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="TSV出力シート" sheetId="1" r:id="rId1"/>
+    <sheet name="ボタン均等配置計算" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="81">
   <si>
     <t>Type</t>
     <phoneticPr fontId="1"/>
@@ -459,6 +460,94 @@
   </si>
   <si>
     <t>PointValueB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>幅</t>
+    <rPh sb="0" eb="1">
+      <t>ハバ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高さ</t>
+    <rPh sb="0" eb="1">
+      <t>タカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタン数</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタン間隔</t>
+    <rPh sb="3" eb="5">
+      <t>カンカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>枠の余白</t>
+    <rPh sb="0" eb="1">
+      <t>ワク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヨハク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタン幅</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1行目</t>
+    <rPh sb="1" eb="3">
+      <t>ギョウメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2行目</t>
+    <rPh sb="1" eb="3">
+      <t>ギョウメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3行目</t>
+    <rPh sb="1" eb="3">
+      <t>ギョウメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4行目</t>
+    <rPh sb="1" eb="3">
+      <t>ギョウメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5行目</t>
+    <rPh sb="1" eb="3">
+      <t>ギョウメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6行目</t>
+    <rPh sb="1" eb="3">
+      <t>ギョウメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>枠のサイズ</t>
+    <rPh sb="0" eb="1">
+      <t>ワク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -496,7 +585,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -509,13 +598,34 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -524,7 +634,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -547,6 +657,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -863,6 +976,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDD8F3DC-5A00-45A7-84F3-974DC90E2A3E}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
   <dimension ref="A1:Z14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -873,19 +989,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="9" width="18.75" style="1" customWidth="1"/>
-    <col min="10" max="10" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6" style="1" customWidth="1"/>
-    <col min="12" max="12" width="6.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13" style="1" customWidth="1"/>
-    <col min="17" max="20" width="18.75" style="1" customWidth="1"/>
-    <col min="21" max="21" width="21.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="18.75" style="1" customWidth="1"/>
-    <col min="25" max="25" width="19.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9" style="1"/>
+    <col min="1" max="2" width="18.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="6.25" style="1" customWidth="1"/>
+    <col min="14" max="14" width="5.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="12.5" style="1" customWidth="1"/>
+    <col min="21" max="21" width="25" style="1" customWidth="1"/>
+    <col min="22" max="22" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.4">
@@ -1609,4 +1732,173 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{929CA5A9-BABF-4C2C-91BD-AF77E6172D2A}">
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="8">
+        <v>1008</v>
+      </c>
+      <c r="C2" s="8">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="8">
+        <v>50</v>
+      </c>
+      <c r="C3" s="8">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="8">
+        <v>200</v>
+      </c>
+      <c r="C4" s="8">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="8">
+        <v>4</v>
+      </c>
+      <c r="C5" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="1">
+        <f>(B$2 - 2 * B$3 - B$5* B$4) / (B$5 - 1)</f>
+        <v>36</v>
+      </c>
+      <c r="C6" s="1">
+        <f>(C$2 - 2 * C$3 - C$5* C$4) / (C$5 - 1)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="1">
+        <f>IF($B$2&gt;=B$3 + (ROW() - ROW(B$9)) * (B$4 + B$6) + $B$4, B$3 + (ROW() - ROW(B$9)) * (B$4 + B$6), "")</f>
+        <v>50</v>
+      </c>
+      <c r="C9" s="1">
+        <f>IF($C$2&gt;=C$3 + (ROW() - ROW(C$9)) * (C$4 + C$6) + $C$4, C$3 + (ROW() - ROW(C$9)) * (C$4 + C$6), "")</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" s="1">
+        <f>IF($B$2&gt;=B$3 + (ROW() - ROW(B$9)) * (B$4 + B$6) + $B$4, B$3 + (ROW() - ROW(B$9)) * (B$4 + B$6), "")</f>
+        <v>286</v>
+      </c>
+      <c r="C10" s="1">
+        <f>IF($C$2&gt;=C$3 + (ROW() - ROW(C$9)) * (C$4 + C$6) + $C$4, C$3 + (ROW() - ROW(C$9)) * (C$4 + C$6), "")</f>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="1">
+        <f>IF($B$2&gt;=B$3 + (ROW() - ROW(B$9)) * (B$4 + B$6) + $B$4, B$3 + (ROW() - ROW(B$9)) * (B$4 + B$6), "")</f>
+        <v>522</v>
+      </c>
+      <c r="C11" s="1">
+        <f>IF($C$2&gt;=C$3 + (ROW() - ROW(C$9)) * (C$4 + C$6) + $C$4, C$3 + (ROW() - ROW(C$9)) * (C$4 + C$6), "")</f>
+        <v>340</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" s="1">
+        <f>IF($B$2&gt;=B$3 + (ROW() - ROW(B$9)) * (B$4 + B$6) + $B$4, B$3 + (ROW() - ROW(B$9)) * (B$4 + B$6), "")</f>
+        <v>758</v>
+      </c>
+      <c r="C12" s="1">
+        <f>IF($C$2&gt;=C$3 + (ROW() - ROW(C$9)) * (C$4 + C$6) + $C$4, C$3 + (ROW() - ROW(C$9)) * (C$4 + C$6), "")</f>
+        <v>470</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" s="1" t="str">
+        <f>IF($B$2&gt;=B$3 + (ROW() - ROW(B$9)) * (B$4 + B$6) + $B$4, B$3 + (ROW() - ROW(B$9)) * (B$4 + B$6), "")</f>
+        <v/>
+      </c>
+      <c r="C13" s="1" t="str">
+        <f>IF($C$2&gt;=C$3 + (ROW() - ROW(C$9)) * (C$4 + C$6) + $C$4, C$3 + (ROW() - ROW(C$9)) * (C$4 + C$6), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" s="1" t="str">
+        <f>IF($B$2&gt;=B$3 + (ROW() - ROW(B$9)) * (B$4 + B$6) + $B$4, B$3 + (ROW() - ROW(B$9)) * (B$4 + B$6), "")</f>
+        <v/>
+      </c>
+      <c r="C14" s="1" t="str">
+        <f>IF($C$2&gt;=C$3 + (ROW() - ROW(C$9)) * (C$4 + C$6) + $C$4, C$3 + (ROW() - ROW(C$9)) * (C$4 + C$6), "")</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/exe/TSV/Excel/Main_UIList.xlsx
+++ b/exe/TSV/Excel/Main_UIList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1BA880F-25AF-4ECB-AF96-36C85A6DA353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C7FAA4-5A11-468B-99FE-ACCCB50DEE4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6690" yWindow="3495" windowWidth="24000" windowHeight="15540" xr2:uid="{31F46B59-F167-4BD2-9521-00AA08088B07}"/>
+    <workbookView xWindow="3810" yWindow="3795" windowWidth="23970" windowHeight="15540" xr2:uid="{31F46B59-F167-4BD2-9521-00AA08088B07}"/>
   </bookViews>
   <sheets>
     <sheet name="TSV出力シート" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="83">
   <si>
     <t>Type</t>
     <phoneticPr fontId="1"/>
@@ -548,6 +548,14 @@
     <rPh sb="0" eb="1">
       <t>ワク</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DirectionName</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DirectionValue</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -979,12 +987,12 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:Z14"/>
+  <dimension ref="A1:AB14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -997,21 +1005,22 @@
     <col min="7" max="7" width="10.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="6.25" style="1" customWidth="1"/>
-    <col min="14" max="14" width="5.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="12.5" style="1" customWidth="1"/>
-    <col min="21" max="21" width="25" style="1" customWidth="1"/>
-    <col min="22" max="22" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9" style="1"/>
+    <col min="10" max="11" width="10.5" style="1" customWidth="1"/>
+    <col min="12" max="15" width="6.25" style="1" customWidth="1"/>
+    <col min="16" max="16" width="5.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="22" width="12.5" style="1" customWidth="1"/>
+    <col min="23" max="23" width="25" style="1" customWidth="1"/>
+    <col min="24" max="24" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1040,58 +1049,64 @@
         <v>67</v>
       </c>
       <c r="J1" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="AB1" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -1105,42 +1120,44 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
-      <c r="J2" s="3">
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3">
         <v>50</v>
       </c>
-      <c r="K2" s="3">
-        <v>80</v>
-      </c>
-      <c r="L2" s="3">
+      <c r="M2" s="3">
+        <v>80</v>
+      </c>
+      <c r="N2" s="3">
         <v>200</v>
       </c>
-      <c r="M2" s="3">
-        <v>80</v>
-      </c>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
+      <c r="O2" s="3">
+        <v>80</v>
+      </c>
       <c r="P2" s="3"/>
-      <c r="Q2" s="3" t="s">
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="R2" s="3">
+      <c r="T2" s="3">
         <v>24</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="W2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
       <c r="X2" s="3"/>
-      <c r="Y2" s="4"/>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="4"/>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -1154,42 +1171,44 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
-      <c r="J3" s="3">
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3">
         <v>286</v>
       </c>
-      <c r="K3" s="3">
-        <v>80</v>
-      </c>
-      <c r="L3" s="3">
+      <c r="M3" s="3">
+        <v>80</v>
+      </c>
+      <c r="N3" s="3">
         <v>200</v>
       </c>
-      <c r="M3" s="3">
-        <v>80</v>
-      </c>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
+      <c r="O3" s="3">
+        <v>80</v>
+      </c>
       <c r="P3" s="3"/>
-      <c r="Q3" s="3" t="s">
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="R3" s="3">
+      <c r="T3" s="3">
         <v>24</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="U3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="V3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="W3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
       <c r="X3" s="3"/>
-      <c r="Y3" s="4"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="4"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -1203,42 +1222,44 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
-      <c r="J4" s="3">
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3">
         <v>522</v>
       </c>
-      <c r="K4" s="3">
-        <v>80</v>
-      </c>
-      <c r="L4" s="3">
+      <c r="M4" s="3">
+        <v>80</v>
+      </c>
+      <c r="N4" s="3">
         <v>200</v>
       </c>
-      <c r="M4" s="3">
-        <v>80</v>
-      </c>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
+      <c r="O4" s="3">
+        <v>80</v>
+      </c>
       <c r="P4" s="3"/>
-      <c r="Q4" s="3" t="s">
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="R4" s="3">
+      <c r="T4" s="3">
         <v>24</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="U4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="V4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="W4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
       <c r="X4" s="3"/>
-      <c r="Y4" s="4"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="4"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -1252,42 +1273,44 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
-      <c r="J5" s="3">
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3">
         <v>758</v>
       </c>
-      <c r="K5" s="3">
-        <v>80</v>
-      </c>
-      <c r="L5" s="3">
+      <c r="M5" s="3">
+        <v>80</v>
+      </c>
+      <c r="N5" s="3">
         <v>200</v>
       </c>
-      <c r="M5" s="3">
-        <v>80</v>
-      </c>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
+      <c r="O5" s="3">
+        <v>80</v>
+      </c>
       <c r="P5" s="3"/>
-      <c r="Q5" s="3" t="s">
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="R5" s="3">
+      <c r="T5" s="3">
         <v>24</v>
       </c>
-      <c r="S5" s="3" t="s">
+      <c r="U5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="T5" s="3" t="s">
+      <c r="V5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="U5" s="3" t="s">
+      <c r="W5" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
       <c r="X5" s="3"/>
-      <c r="Y5" s="4"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="4"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -1301,42 +1324,44 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
-      <c r="J6" s="3">
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3">
         <v>50</v>
       </c>
-      <c r="K6" s="3">
+      <c r="M6" s="3">
         <v>210</v>
       </c>
-      <c r="L6" s="3">
+      <c r="N6" s="3">
         <v>200</v>
       </c>
-      <c r="M6" s="3">
-        <v>80</v>
-      </c>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
+      <c r="O6" s="3">
+        <v>80</v>
+      </c>
       <c r="P6" s="3"/>
-      <c r="Q6" s="3" t="s">
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R6" s="3">
+      <c r="T6" s="3">
         <v>24</v>
       </c>
-      <c r="S6" s="3" t="s">
+      <c r="U6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="T6" s="3" t="s">
+      <c r="V6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="U6" s="3" t="s">
+      <c r="W6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
       <c r="X6" s="3"/>
-      <c r="Y6" s="4"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="4"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -1350,42 +1375,44 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
-      <c r="J7" s="3">
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3">
         <v>286</v>
       </c>
-      <c r="K7" s="3">
+      <c r="M7" s="3">
         <v>210</v>
       </c>
-      <c r="L7" s="3">
+      <c r="N7" s="3">
         <v>200</v>
       </c>
-      <c r="M7" s="3">
-        <v>80</v>
-      </c>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
+      <c r="O7" s="3">
+        <v>80</v>
+      </c>
       <c r="P7" s="3"/>
-      <c r="Q7" s="3" t="s">
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="R7" s="3">
+      <c r="T7" s="3">
         <v>24</v>
       </c>
-      <c r="S7" s="3" t="s">
+      <c r="U7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="T7" s="3" t="s">
+      <c r="V7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="U7" s="3" t="s">
+      <c r="W7" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
       <c r="X7" s="3"/>
-      <c r="Y7" s="4"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="4"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -1399,42 +1426,44 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
-      <c r="J8" s="3">
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3">
         <v>522</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>210</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>200</v>
       </c>
-      <c r="M8" s="3">
-        <v>80</v>
-      </c>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
+      <c r="O8" s="3">
+        <v>80</v>
+      </c>
       <c r="P8" s="3"/>
-      <c r="Q8" s="3" t="s">
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>24</v>
       </c>
-      <c r="S8" s="3" t="s">
+      <c r="U8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="T8" s="3" t="s">
+      <c r="V8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="U8" s="3" t="s">
+      <c r="W8" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
       <c r="X8" s="3"/>
-      <c r="Y8" s="4"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="4"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
@@ -1448,42 +1477,44 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
-      <c r="J9" s="3">
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3">
         <v>758</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>210</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>200</v>
       </c>
-      <c r="M9" s="3">
-        <v>80</v>
-      </c>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
+      <c r="O9" s="3">
+        <v>80</v>
+      </c>
       <c r="P9" s="3"/>
-      <c r="Q9" s="7" t="s">
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>24</v>
       </c>
-      <c r="S9" s="3" t="s">
+      <c r="U9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="T9" s="3" t="s">
+      <c r="V9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="U9" s="3" t="s">
+      <c r="W9" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
       <c r="X9" s="3"/>
-      <c r="Y9" s="4"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="4"/>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
@@ -1497,42 +1528,44 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
-      <c r="J10" s="3">
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3">
         <v>50</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>340</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>200</v>
       </c>
-      <c r="M10" s="3">
-        <v>80</v>
-      </c>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
+      <c r="O10" s="3">
+        <v>80</v>
+      </c>
       <c r="P10" s="3"/>
-      <c r="Q10" s="7" t="s">
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>24</v>
       </c>
-      <c r="S10" s="3" t="s">
+      <c r="U10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="T10" s="3" t="s">
+      <c r="V10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="U10" s="3" t="s">
+      <c r="W10" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="V10" s="3"/>
-      <c r="W10" s="3"/>
       <c r="X10" s="3"/>
-      <c r="Y10" s="4"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="4"/>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
         <v>5</v>
       </c>
@@ -1546,42 +1579,44 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
-      <c r="J11" s="3">
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3">
         <v>286</v>
       </c>
-      <c r="K11" s="3">
+      <c r="M11" s="3">
         <v>340</v>
       </c>
-      <c r="L11" s="3">
+      <c r="N11" s="3">
         <v>200</v>
       </c>
-      <c r="M11" s="3">
-        <v>80</v>
-      </c>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
+      <c r="O11" s="3">
+        <v>80</v>
+      </c>
       <c r="P11" s="3"/>
-      <c r="Q11" s="7" t="s">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="R11" s="3">
+      <c r="T11" s="3">
         <v>24</v>
       </c>
-      <c r="S11" s="3" t="s">
+      <c r="U11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="T11" s="3" t="s">
+      <c r="V11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="U11" s="3" t="s">
+      <c r="W11" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-      <c r="Y11" s="4"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="4"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
         <v>5</v>
       </c>
@@ -1595,42 +1630,44 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
-      <c r="J12" s="3">
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3">
         <v>522</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>340</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>200</v>
       </c>
-      <c r="M12" s="3">
-        <v>80</v>
-      </c>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
+      <c r="O12" s="3">
+        <v>80</v>
+      </c>
       <c r="P12" s="3"/>
-      <c r="Q12" s="3" t="s">
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>24</v>
       </c>
-      <c r="S12" s="3" t="s">
+      <c r="U12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="T12" s="3" t="s">
+      <c r="V12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="U12" s="3" t="s">
+      <c r="W12" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
       <c r="X12" s="3"/>
-      <c r="Y12" s="4"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="4"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
         <v>5</v>
       </c>
@@ -1644,42 +1681,44 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="3">
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3">
         <v>758</v>
       </c>
-      <c r="K13" s="3">
+      <c r="M13" s="3">
         <v>340</v>
       </c>
-      <c r="L13" s="3">
+      <c r="N13" s="3">
         <v>200</v>
       </c>
-      <c r="M13" s="3">
-        <v>80</v>
-      </c>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
+      <c r="O13" s="3">
+        <v>80</v>
+      </c>
       <c r="P13" s="3"/>
-      <c r="Q13" s="7" t="s">
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="R13" s="3">
+      <c r="T13" s="3">
         <v>24</v>
       </c>
-      <c r="S13" s="3" t="s">
+      <c r="U13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="T13" s="3" t="s">
+      <c r="V13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="U13" s="3" t="s">
+      <c r="W13" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3"/>
       <c r="X13" s="3"/>
-      <c r="Y13" s="4"/>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="4"/>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
         <v>5</v>
       </c>
@@ -1693,40 +1732,42 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="3">
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3">
         <v>50</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>470</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>200</v>
       </c>
-      <c r="M14" s="3">
-        <v>80</v>
-      </c>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
+      <c r="O14" s="3">
+        <v>80</v>
+      </c>
       <c r="P14" s="3"/>
-      <c r="Q14" s="3" t="s">
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>24</v>
       </c>
-      <c r="S14" s="3" t="s">
+      <c r="U14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="T14" s="3" t="s">
+      <c r="V14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="U14" s="3" t="s">
+      <c r="W14" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
       <c r="X14" s="3"/>
-      <c r="Y14" s="4"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1824,11 +1865,11 @@
         <v>74</v>
       </c>
       <c r="B9" s="1">
-        <f>IF($B$2&gt;=B$3 + (ROW() - ROW(B$9)) * (B$4 + B$6) + $B$4, B$3 + (ROW() - ROW(B$9)) * (B$4 + B$6), "")</f>
+        <f t="shared" ref="B9:B14" si="0">IF($B$2&gt;=B$3 + (ROW() - ROW(B$9)) * (B$4 + B$6) + $B$4, B$3 + (ROW() - ROW(B$9)) * (B$4 + B$6), "")</f>
         <v>50</v>
       </c>
       <c r="C9" s="1">
-        <f>IF($C$2&gt;=C$3 + (ROW() - ROW(C$9)) * (C$4 + C$6) + $C$4, C$3 + (ROW() - ROW(C$9)) * (C$4 + C$6), "")</f>
+        <f t="shared" ref="C9:C14" si="1">IF($C$2&gt;=C$3 + (ROW() - ROW(C$9)) * (C$4 + C$6) + $C$4, C$3 + (ROW() - ROW(C$9)) * (C$4 + C$6), "")</f>
         <v>80</v>
       </c>
     </row>
@@ -1837,11 +1878,11 @@
         <v>75</v>
       </c>
       <c r="B10" s="1">
-        <f>IF($B$2&gt;=B$3 + (ROW() - ROW(B$9)) * (B$4 + B$6) + $B$4, B$3 + (ROW() - ROW(B$9)) * (B$4 + B$6), "")</f>
+        <f t="shared" si="0"/>
         <v>286</v>
       </c>
       <c r="C10" s="1">
-        <f>IF($C$2&gt;=C$3 + (ROW() - ROW(C$9)) * (C$4 + C$6) + $C$4, C$3 + (ROW() - ROW(C$9)) * (C$4 + C$6), "")</f>
+        <f t="shared" si="1"/>
         <v>210</v>
       </c>
     </row>
@@ -1850,11 +1891,11 @@
         <v>76</v>
       </c>
       <c r="B11" s="1">
-        <f>IF($B$2&gt;=B$3 + (ROW() - ROW(B$9)) * (B$4 + B$6) + $B$4, B$3 + (ROW() - ROW(B$9)) * (B$4 + B$6), "")</f>
+        <f t="shared" si="0"/>
         <v>522</v>
       </c>
       <c r="C11" s="1">
-        <f>IF($C$2&gt;=C$3 + (ROW() - ROW(C$9)) * (C$4 + C$6) + $C$4, C$3 + (ROW() - ROW(C$9)) * (C$4 + C$6), "")</f>
+        <f t="shared" si="1"/>
         <v>340</v>
       </c>
     </row>
@@ -1863,11 +1904,11 @@
         <v>77</v>
       </c>
       <c r="B12" s="1">
-        <f>IF($B$2&gt;=B$3 + (ROW() - ROW(B$9)) * (B$4 + B$6) + $B$4, B$3 + (ROW() - ROW(B$9)) * (B$4 + B$6), "")</f>
+        <f t="shared" si="0"/>
         <v>758</v>
       </c>
       <c r="C12" s="1">
-        <f>IF($C$2&gt;=C$3 + (ROW() - ROW(C$9)) * (C$4 + C$6) + $C$4, C$3 + (ROW() - ROW(C$9)) * (C$4 + C$6), "")</f>
+        <f t="shared" si="1"/>
         <v>470</v>
       </c>
     </row>
@@ -1876,11 +1917,11 @@
         <v>78</v>
       </c>
       <c r="B13" s="1" t="str">
-        <f>IF($B$2&gt;=B$3 + (ROW() - ROW(B$9)) * (B$4 + B$6) + $B$4, B$3 + (ROW() - ROW(B$9)) * (B$4 + B$6), "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C13" s="1" t="str">
-        <f>IF($C$2&gt;=C$3 + (ROW() - ROW(C$9)) * (C$4 + C$6) + $C$4, C$3 + (ROW() - ROW(C$9)) * (C$4 + C$6), "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1889,11 +1930,11 @@
         <v>79</v>
       </c>
       <c r="B14" s="1" t="str">
-        <f>IF($B$2&gt;=B$3 + (ROW() - ROW(B$9)) * (B$4 + B$6) + $B$4, B$3 + (ROW() - ROW(B$9)) * (B$4 + B$6), "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C14" s="1" t="str">
-        <f>IF($C$2&gt;=C$3 + (ROW() - ROW(C$9)) * (C$4 + C$6) + $C$4, C$3 + (ROW() - ROW(C$9)) * (C$4 + C$6), "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
